--- a/Part1_TestDesignAndBugChallenge/API_UI_TestCase.xlsx
+++ b/Part1_TestDesignAndBugChallenge/API_UI_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UI_TestCases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>Detailed Test Case</t>
   </si>
@@ -201,9 +201,6 @@
     <t>06</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Send request with city name having special char in name, correct appid - Verify the response is correct</t>
-  </si>
-  <si>
     <t>- If it is specific value, verify response if it is the specific value
 - If it is #string, verify respone value if it is string
 - If it is #depend_on_id, it should chek value of id and then get approriate value</t>
@@ -265,11 +262,6 @@
   <si>
     <t xml:space="preserve">2. It displays under search box: Not found. To make search more precise put the city's name, comma, 2-letter country code (ISO3166).
 - There is a notification: No result for NotACity
-Example
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Nothing happens
 Example
 </t>
   </si>
@@ -399,6 +391,77 @@
   </si>
   <si>
     <t>API Test</t>
+  </si>
+  <si>
+    <t>Search weather of a city whose name has not alphabet characters</t>
+  </si>
+  <si>
+    <t>Ex: Москва</t>
+  </si>
+  <si>
+    <t>2. User  fills search box with city whose name has not alphabet characters</t>
+  </si>
+  <si>
+    <t>2. It returns results, user can select a result to display weather
+Ex:</t>
+  </si>
+  <si>
+    <t>Non - Functionality</t>
+  </si>
+  <si>
+    <t>Load test</t>
+  </si>
+  <si>
+    <t>{
+    "cod": "200"
+ "name": correct with input city name,
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Simulate 100 users sends request at a time during 1 hours
+- Increase number of user sending request until system responses with error 
+- Get a threshold of a system</t>
+  </si>
+  <si>
+    <t>- q= "valid city name get from a list" 
+- appid = "123456789" (valid appid)</t>
+  </si>
+  <si>
+    <t>- Check RAM usage
+- Check Memory usage</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Performance test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Simulate 100 users sends request at a time during 4 hours
+- Check the performance of system in long run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Nothing happens
+- No request is sent (On browser, check by go to Developer mode - F12)
+Example
+</t>
+  </si>
+  <si>
+    <t>Error guess</t>
+  </si>
+  <si>
+    <t>Search weather with special character (Ex: {}!@#$%^|)</t>
+  </si>
+  <si>
+    <t>2. User  fills search box with special characters</t>
+  </si>
+  <si>
+    <t>Ex: {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  It displays under search box: Not found. To make search more precise put the city's name, comma, 2-letter country code (ISO3166).
+- There is a notification: No result for NotACity
+</t>
   </si>
 </sst>
 </file>
@@ -913,10 +976,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1109,10 +1172,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,6 +1220,93 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1139,92 +1326,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1236,6 +1339,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1244,35 +1365,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,25 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1321,43 +1420,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1536,15 +1605,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
+      <xdr:colOff>143275</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>778809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5444953</xdr:colOff>
+      <xdr:colOff>5411335</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>1314567</xdr:rowOff>
+      <xdr:rowOff>1617126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,8 +1636,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9443357" y="17389929"/>
+          <a:off x="11595687" y="17722103"/>
           <a:ext cx="5268060" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>605117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5264649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2834278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811001" y="22232470"/>
+          <a:ext cx="4906060" cy="2229161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1867,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAH157"/>
+  <dimension ref="A1:AAH161"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1890,22 +1997,22 @@
   <sheetData>
     <row r="1" spans="1:710" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="2"/>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="97" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="4">
-        <f>COUNTIF($J15:$J387,"High")</f>
-        <v>3</v>
+        <f>COUNTIF($J15:$J391,"High")</f>
+        <v>4</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -2611,17 +2718,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
-      <c r="I2" s="99"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="11">
-        <f>COUNTIF($J15:$J387,"Medium")</f>
-        <v>1</v>
+        <f>COUNTIF($J15:$J391,"Medium")</f>
+        <v>2</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -3329,12 +3436,12 @@
       <c r="C3" s="13"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="I3" s="100"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="15">
-        <f>COUNTIF($J15:$J387,"Low")</f>
+        <f>COUNTIF($J15:$J391,"Low")</f>
         <v>0</v>
       </c>
       <c r="N3" s="12"/>
@@ -4037,7 +4144,7 @@
     </row>
     <row r="4" spans="1:710" s="2" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="16"/>
@@ -4046,7 +4153,7 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="97" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -4757,7 +4864,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="I5" s="101"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
@@ -5463,7 +5570,7 @@
     <row r="6" spans="1:710" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="F6" s="20"/>
-      <c r="I6" s="101"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +6276,7 @@
     <row r="7" spans="1:710" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="F7" s="21"/>
-      <c r="I7" s="101"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6982,7 @@
     <row r="8" spans="1:710" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="F8" s="22"/>
-      <c r="I8" s="102"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="14" t="s">
         <v>14</v>
       </c>
@@ -8295,8 +8402,8 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
@@ -9003,43 +9110,43 @@
       <c r="AAH10" s="12"/>
     </row>
     <row r="11" spans="1:710" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>77</v>
+      <c r="C11" s="81" t="s">
+        <v>75</v>
       </c>
-      <c r="D11" s="94" t="s">
-        <v>78</v>
+      <c r="D11" s="81" t="s">
+        <v>76</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="102" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="32"/>
@@ -9741,19 +9848,19 @@
       <c r="AAH11" s="32"/>
     </row>
     <row r="12" spans="1:710" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -10453,19 +10560,19 @@
       <c r="AAH12" s="32"/>
     </row>
     <row r="13" spans="1:710" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
@@ -11165,17 +11272,17 @@
       <c r="AAH13" s="32"/>
     </row>
     <row r="14" spans="1:710" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -11879,20 +11986,20 @@
       <c r="AAH14" s="35"/>
     </row>
     <row r="15" spans="1:710" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="80" t="str">
+      <c r="B15" s="84" t="str">
         <f t="shared" ref="B15" si="0">$A$14&amp;"_"&amp;A15</f>
         <v>UI_01</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>79</v>
+      <c r="C15" s="84" t="s">
+        <v>77</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>80</v>
+      <c r="D15" s="84" t="s">
+        <v>78</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="104" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="38" t="s">
@@ -11902,13 +12009,13 @@
       <c r="H15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
@@ -12608,22 +12715,22 @@
       <c r="AAH15" s="35"/>
     </row>
     <row r="16" spans="1:710" s="36" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="84"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="96"/>
       <c r="L16" s="96"/>
       <c r="M16" s="96"/>
@@ -13326,20 +13433,20 @@
       <c r="AAH16" s="35"/>
     </row>
     <row r="17" spans="1:710" s="36" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="86" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="91" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
       <c r="M17" s="96"/>
@@ -14042,19 +14149,19 @@
       <c r="AAH17" s="35"/>
     </row>
     <row r="18" spans="1:710" s="36" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -14754,20 +14861,20 @@
       <c r="AAH18" s="35"/>
     </row>
     <row r="19" spans="1:710" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="80" t="str">
+      <c r="B19" s="84" t="str">
         <f>$A$14&amp;"_"&amp;A19</f>
         <v>UI_02</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="89" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="38" t="s">
@@ -14778,12 +14885,12 @@
         <v>31</v>
       </c>
       <c r="I19" s="40"/>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="95"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
@@ -15483,25 +15590,25 @@
       <c r="AAH19" s="35"/>
     </row>
     <row r="20" spans="1:710" s="36" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="114"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
-      <c r="H20" s="112" t="s">
-        <v>62</v>
+      <c r="H20" s="69" t="s">
+        <v>61</v>
       </c>
       <c r="I20" s="40"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="97"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
@@ -16201,20 +16308,20 @@
       <c r="AAH20" s="35"/>
     </row>
     <row r="21" spans="1:710" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="80" t="str">
-        <f t="shared" ref="B21:B23" si="1">$A$14&amp;"_"&amp;A21</f>
+      <c r="B21" s="84" t="str">
+        <f t="shared" ref="B21:B27" si="1">$A$14&amp;"_"&amp;A21</f>
         <v>UI_03</v>
       </c>
-      <c r="C21" s="80" t="s">
-        <v>79</v>
+      <c r="C21" s="84" t="s">
+        <v>77</v>
       </c>
-      <c r="D21" s="80" t="s">
-        <v>82</v>
+      <c r="D21" s="84" t="s">
+        <v>80</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="89" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="38" t="s">
@@ -16225,12 +16332,12 @@
         <v>31</v>
       </c>
       <c r="I21" s="40"/>
-      <c r="J21" s="88" t="s">
+      <c r="J21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="95"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="79"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
@@ -16929,24 +17036,24 @@
       <c r="AAG21" s="35"/>
       <c r="AAH21" s="35"/>
     </row>
-    <row r="22" spans="1:710" s="36" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="114"/>
+    <row r="22" spans="1:710" s="36" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="37"/>
-      <c r="H22" s="112" t="s">
-        <v>63</v>
+      <c r="H22" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="I22" s="40"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="97"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
@@ -17645,21 +17752,21 @@
       <c r="AAG22" s="35"/>
       <c r="AAH22" s="35"/>
     </row>
-    <row r="23" spans="1:710" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:710" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="80" t="str">
+      <c r="B23" s="84" t="str">
         <f t="shared" si="1"/>
         <v>UI_04</v>
       </c>
-      <c r="C23" s="80" t="s">
-        <v>79</v>
+      <c r="C23" s="84" t="s">
+        <v>77</v>
       </c>
-      <c r="D23" s="80" t="s">
-        <v>82</v>
+      <c r="D23" s="84" t="s">
+        <v>80</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="84" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="38" t="s">
@@ -17670,12 +17777,12 @@
         <v>31</v>
       </c>
       <c r="I23" s="40"/>
-      <c r="J23" s="88" t="s">
+      <c r="J23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="95"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="79"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -18375,25 +18482,25 @@
       <c r="AAH23" s="35"/>
     </row>
     <row r="24" spans="1:710" s="36" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
       <c r="F24" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
-      <c r="G24" s="119" t="s">
-        <v>69</v>
+      <c r="G24" s="70" t="s">
+        <v>67</v>
       </c>
-      <c r="H24" s="121" t="s">
-        <v>76</v>
+      <c r="H24" s="72" t="s">
+        <v>74</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="97"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
@@ -19092,20 +19199,37 @@
       <c r="AAG24" s="35"/>
       <c r="AAH24" s="35"/>
     </row>
-    <row r="25" spans="1:710" s="36" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
+    <row r="25" spans="1:710" s="36" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>UI_05</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
@@ -19804,48 +19928,2896 @@
       <c r="AAG25" s="35"/>
       <c r="AAH25" s="35"/>
     </row>
-    <row r="26" spans="1:710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:710" s="36" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="88"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="71"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="35"/>
+      <c r="BB26" s="35"/>
+      <c r="BC26" s="35"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="35"/>
+      <c r="BF26" s="35"/>
+      <c r="BG26" s="35"/>
+      <c r="BH26" s="35"/>
+      <c r="BI26" s="35"/>
+      <c r="BJ26" s="35"/>
+      <c r="BK26" s="35"/>
+      <c r="BL26" s="35"/>
+      <c r="BM26" s="35"/>
+      <c r="BN26" s="35"/>
+      <c r="BO26" s="35"/>
+      <c r="BP26" s="35"/>
+      <c r="BQ26" s="35"/>
+      <c r="BR26" s="35"/>
+      <c r="BS26" s="35"/>
+      <c r="BT26" s="35"/>
+      <c r="BU26" s="35"/>
+      <c r="BV26" s="35"/>
+      <c r="BW26" s="35"/>
+      <c r="BX26" s="35"/>
+      <c r="BY26" s="35"/>
+      <c r="BZ26" s="35"/>
+      <c r="CA26" s="35"/>
+      <c r="CB26" s="35"/>
+      <c r="CC26" s="35"/>
+      <c r="CD26" s="35"/>
+      <c r="CE26" s="35"/>
+      <c r="CF26" s="35"/>
+      <c r="CG26" s="35"/>
+      <c r="CH26" s="35"/>
+      <c r="CI26" s="35"/>
+      <c r="CJ26" s="35"/>
+      <c r="CK26" s="35"/>
+      <c r="CL26" s="35"/>
+      <c r="CM26" s="35"/>
+      <c r="CN26" s="35"/>
+      <c r="CO26" s="35"/>
+      <c r="CP26" s="35"/>
+      <c r="CQ26" s="35"/>
+      <c r="CR26" s="35"/>
+      <c r="CS26" s="35"/>
+      <c r="CT26" s="35"/>
+      <c r="CU26" s="35"/>
+      <c r="CV26" s="35"/>
+      <c r="CW26" s="35"/>
+      <c r="CX26" s="35"/>
+      <c r="CY26" s="35"/>
+      <c r="CZ26" s="35"/>
+      <c r="DA26" s="35"/>
+      <c r="DB26" s="35"/>
+      <c r="DC26" s="35"/>
+      <c r="DD26" s="35"/>
+      <c r="DE26" s="35"/>
+      <c r="DF26" s="35"/>
+      <c r="DG26" s="35"/>
+      <c r="DH26" s="35"/>
+      <c r="DI26" s="35"/>
+      <c r="DJ26" s="35"/>
+      <c r="DK26" s="35"/>
+      <c r="DL26" s="35"/>
+      <c r="DM26" s="35"/>
+      <c r="DN26" s="35"/>
+      <c r="DO26" s="35"/>
+      <c r="DP26" s="35"/>
+      <c r="DQ26" s="35"/>
+      <c r="DR26" s="35"/>
+      <c r="DS26" s="35"/>
+      <c r="DT26" s="35"/>
+      <c r="DU26" s="35"/>
+      <c r="DV26" s="35"/>
+      <c r="DW26" s="35"/>
+      <c r="DX26" s="35"/>
+      <c r="DY26" s="35"/>
+      <c r="DZ26" s="35"/>
+      <c r="EA26" s="35"/>
+      <c r="EB26" s="35"/>
+      <c r="EC26" s="35"/>
+      <c r="ED26" s="35"/>
+      <c r="EE26" s="35"/>
+      <c r="EF26" s="35"/>
+      <c r="EG26" s="35"/>
+      <c r="EH26" s="35"/>
+      <c r="EI26" s="35"/>
+      <c r="EJ26" s="35"/>
+      <c r="EK26" s="35"/>
+      <c r="EL26" s="35"/>
+      <c r="EM26" s="35"/>
+      <c r="EN26" s="35"/>
+      <c r="EO26" s="35"/>
+      <c r="EP26" s="35"/>
+      <c r="EQ26" s="35"/>
+      <c r="ER26" s="35"/>
+      <c r="ES26" s="35"/>
+      <c r="ET26" s="35"/>
+      <c r="EU26" s="35"/>
+      <c r="EV26" s="35"/>
+      <c r="EW26" s="35"/>
+      <c r="EX26" s="35"/>
+      <c r="EY26" s="35"/>
+      <c r="EZ26" s="35"/>
+      <c r="FA26" s="35"/>
+      <c r="FB26" s="35"/>
+      <c r="FC26" s="35"/>
+      <c r="FD26" s="35"/>
+      <c r="FE26" s="35"/>
+      <c r="FF26" s="35"/>
+      <c r="FG26" s="35"/>
+      <c r="FH26" s="35"/>
+      <c r="FI26" s="35"/>
+      <c r="FJ26" s="35"/>
+      <c r="FK26" s="35"/>
+      <c r="FL26" s="35"/>
+      <c r="FM26" s="35"/>
+      <c r="FN26" s="35"/>
+      <c r="FO26" s="35"/>
+      <c r="FP26" s="35"/>
+      <c r="FQ26" s="35"/>
+      <c r="FR26" s="35"/>
+      <c r="FS26" s="35"/>
+      <c r="FT26" s="35"/>
+      <c r="FU26" s="35"/>
+      <c r="FV26" s="35"/>
+      <c r="FW26" s="35"/>
+      <c r="FX26" s="35"/>
+      <c r="FY26" s="35"/>
+      <c r="FZ26" s="35"/>
+      <c r="GA26" s="35"/>
+      <c r="GB26" s="35"/>
+      <c r="GC26" s="35"/>
+      <c r="GD26" s="35"/>
+      <c r="GE26" s="35"/>
+      <c r="GF26" s="35"/>
+      <c r="GG26" s="35"/>
+      <c r="GH26" s="35"/>
+      <c r="GI26" s="35"/>
+      <c r="GJ26" s="35"/>
+      <c r="GK26" s="35"/>
+      <c r="GL26" s="35"/>
+      <c r="GM26" s="35"/>
+      <c r="GN26" s="35"/>
+      <c r="GO26" s="35"/>
+      <c r="GP26" s="35"/>
+      <c r="GQ26" s="35"/>
+      <c r="GR26" s="35"/>
+      <c r="GS26" s="35"/>
+      <c r="GT26" s="35"/>
+      <c r="GU26" s="35"/>
+      <c r="GV26" s="35"/>
+      <c r="GW26" s="35"/>
+      <c r="GX26" s="35"/>
+      <c r="GY26" s="35"/>
+      <c r="GZ26" s="35"/>
+      <c r="HA26" s="35"/>
+      <c r="HB26" s="35"/>
+      <c r="HC26" s="35"/>
+      <c r="HD26" s="35"/>
+      <c r="HE26" s="35"/>
+      <c r="HF26" s="35"/>
+      <c r="HG26" s="35"/>
+      <c r="HH26" s="35"/>
+      <c r="HI26" s="35"/>
+      <c r="HJ26" s="35"/>
+      <c r="HK26" s="35"/>
+      <c r="HL26" s="35"/>
+      <c r="HM26" s="35"/>
+      <c r="HN26" s="35"/>
+      <c r="HO26" s="35"/>
+      <c r="HP26" s="35"/>
+      <c r="HQ26" s="35"/>
+      <c r="HR26" s="35"/>
+      <c r="HS26" s="35"/>
+      <c r="HT26" s="35"/>
+      <c r="HU26" s="35"/>
+      <c r="HV26" s="35"/>
+      <c r="HW26" s="35"/>
+      <c r="HX26" s="35"/>
+      <c r="HY26" s="35"/>
+      <c r="HZ26" s="35"/>
+      <c r="IA26" s="35"/>
+      <c r="IB26" s="35"/>
+      <c r="IC26" s="35"/>
+      <c r="ID26" s="35"/>
+      <c r="IE26" s="35"/>
+      <c r="IF26" s="35"/>
+      <c r="IG26" s="35"/>
+      <c r="IH26" s="35"/>
+      <c r="II26" s="35"/>
+      <c r="IJ26" s="35"/>
+      <c r="IK26" s="35"/>
+      <c r="IL26" s="35"/>
+      <c r="IM26" s="35"/>
+      <c r="IN26" s="35"/>
+      <c r="IO26" s="35"/>
+      <c r="IP26" s="35"/>
+      <c r="IQ26" s="35"/>
+      <c r="IR26" s="35"/>
+      <c r="IS26" s="35"/>
+      <c r="IT26" s="35"/>
+      <c r="IU26" s="35"/>
+      <c r="IV26" s="35"/>
+      <c r="IW26" s="35"/>
+      <c r="IX26" s="35"/>
+      <c r="IY26" s="35"/>
+      <c r="IZ26" s="35"/>
+      <c r="JA26" s="35"/>
+      <c r="JB26" s="35"/>
+      <c r="JC26" s="35"/>
+      <c r="JD26" s="35"/>
+      <c r="JE26" s="35"/>
+      <c r="JF26" s="35"/>
+      <c r="JG26" s="35"/>
+      <c r="JH26" s="35"/>
+      <c r="JI26" s="35"/>
+      <c r="JJ26" s="35"/>
+      <c r="JK26" s="35"/>
+      <c r="JL26" s="35"/>
+      <c r="JM26" s="35"/>
+      <c r="JN26" s="35"/>
+      <c r="JO26" s="35"/>
+      <c r="JP26" s="35"/>
+      <c r="JQ26" s="35"/>
+      <c r="JR26" s="35"/>
+      <c r="JS26" s="35"/>
+      <c r="JT26" s="35"/>
+      <c r="JU26" s="35"/>
+      <c r="JV26" s="35"/>
+      <c r="JW26" s="35"/>
+      <c r="JX26" s="35"/>
+      <c r="JY26" s="35"/>
+      <c r="JZ26" s="35"/>
+      <c r="KA26" s="35"/>
+      <c r="KB26" s="35"/>
+      <c r="KC26" s="35"/>
+      <c r="KD26" s="35"/>
+      <c r="KE26" s="35"/>
+      <c r="KF26" s="35"/>
+      <c r="KG26" s="35"/>
+      <c r="KH26" s="35"/>
+      <c r="KI26" s="35"/>
+      <c r="KJ26" s="35"/>
+      <c r="KK26" s="35"/>
+      <c r="KL26" s="35"/>
+      <c r="KM26" s="35"/>
+      <c r="KN26" s="35"/>
+      <c r="KO26" s="35"/>
+      <c r="KP26" s="35"/>
+      <c r="KQ26" s="35"/>
+      <c r="KR26" s="35"/>
+      <c r="KS26" s="35"/>
+      <c r="KT26" s="35"/>
+      <c r="KU26" s="35"/>
+      <c r="KV26" s="35"/>
+      <c r="KW26" s="35"/>
+      <c r="KX26" s="35"/>
+      <c r="KY26" s="35"/>
+      <c r="KZ26" s="35"/>
+      <c r="LA26" s="35"/>
+      <c r="LB26" s="35"/>
+      <c r="LC26" s="35"/>
+      <c r="LD26" s="35"/>
+      <c r="LE26" s="35"/>
+      <c r="LF26" s="35"/>
+      <c r="LG26" s="35"/>
+      <c r="LH26" s="35"/>
+      <c r="LI26" s="35"/>
+      <c r="LJ26" s="35"/>
+      <c r="LK26" s="35"/>
+      <c r="LL26" s="35"/>
+      <c r="LM26" s="35"/>
+      <c r="LN26" s="35"/>
+      <c r="LO26" s="35"/>
+      <c r="LP26" s="35"/>
+      <c r="LQ26" s="35"/>
+      <c r="LR26" s="35"/>
+      <c r="LS26" s="35"/>
+      <c r="LT26" s="35"/>
+      <c r="LU26" s="35"/>
+      <c r="LV26" s="35"/>
+      <c r="LW26" s="35"/>
+      <c r="LX26" s="35"/>
+      <c r="LY26" s="35"/>
+      <c r="LZ26" s="35"/>
+      <c r="MA26" s="35"/>
+      <c r="MB26" s="35"/>
+      <c r="MC26" s="35"/>
+      <c r="MD26" s="35"/>
+      <c r="ME26" s="35"/>
+      <c r="MF26" s="35"/>
+      <c r="MG26" s="35"/>
+      <c r="MH26" s="35"/>
+      <c r="MI26" s="35"/>
+      <c r="MJ26" s="35"/>
+      <c r="MK26" s="35"/>
+      <c r="ML26" s="35"/>
+      <c r="MM26" s="35"/>
+      <c r="MN26" s="35"/>
+      <c r="MO26" s="35"/>
+      <c r="MP26" s="35"/>
+      <c r="MQ26" s="35"/>
+      <c r="MR26" s="35"/>
+      <c r="MS26" s="35"/>
+      <c r="MT26" s="35"/>
+      <c r="MU26" s="35"/>
+      <c r="MV26" s="35"/>
+      <c r="MW26" s="35"/>
+      <c r="MX26" s="35"/>
+      <c r="MY26" s="35"/>
+      <c r="MZ26" s="35"/>
+      <c r="NA26" s="35"/>
+      <c r="NB26" s="35"/>
+      <c r="NC26" s="35"/>
+      <c r="ND26" s="35"/>
+      <c r="NE26" s="35"/>
+      <c r="NF26" s="35"/>
+      <c r="NG26" s="35"/>
+      <c r="NH26" s="35"/>
+      <c r="NI26" s="35"/>
+      <c r="NJ26" s="35"/>
+      <c r="NK26" s="35"/>
+      <c r="NL26" s="35"/>
+      <c r="NM26" s="35"/>
+      <c r="NN26" s="35"/>
+      <c r="NO26" s="35"/>
+      <c r="NP26" s="35"/>
+      <c r="NQ26" s="35"/>
+      <c r="NR26" s="35"/>
+      <c r="NS26" s="35"/>
+      <c r="NT26" s="35"/>
+      <c r="NU26" s="35"/>
+      <c r="NV26" s="35"/>
+      <c r="NW26" s="35"/>
+      <c r="NX26" s="35"/>
+      <c r="NY26" s="35"/>
+      <c r="NZ26" s="35"/>
+      <c r="OA26" s="35"/>
+      <c r="OB26" s="35"/>
+      <c r="OC26" s="35"/>
+      <c r="OD26" s="35"/>
+      <c r="OE26" s="35"/>
+      <c r="OF26" s="35"/>
+      <c r="OG26" s="35"/>
+      <c r="OH26" s="35"/>
+      <c r="OI26" s="35"/>
+      <c r="OJ26" s="35"/>
+      <c r="OK26" s="35"/>
+      <c r="OL26" s="35"/>
+      <c r="OM26" s="35"/>
+      <c r="ON26" s="35"/>
+      <c r="OO26" s="35"/>
+      <c r="OP26" s="35"/>
+      <c r="OQ26" s="35"/>
+      <c r="OR26" s="35"/>
+      <c r="OS26" s="35"/>
+      <c r="OT26" s="35"/>
+      <c r="OU26" s="35"/>
+      <c r="OV26" s="35"/>
+      <c r="OW26" s="35"/>
+      <c r="OX26" s="35"/>
+      <c r="OY26" s="35"/>
+      <c r="OZ26" s="35"/>
+      <c r="PA26" s="35"/>
+      <c r="PB26" s="35"/>
+      <c r="PC26" s="35"/>
+      <c r="PD26" s="35"/>
+      <c r="PE26" s="35"/>
+      <c r="PF26" s="35"/>
+      <c r="PG26" s="35"/>
+      <c r="PH26" s="35"/>
+      <c r="PI26" s="35"/>
+      <c r="PJ26" s="35"/>
+      <c r="PK26" s="35"/>
+      <c r="PL26" s="35"/>
+      <c r="PM26" s="35"/>
+      <c r="PN26" s="35"/>
+      <c r="PO26" s="35"/>
+      <c r="PP26" s="35"/>
+      <c r="PQ26" s="35"/>
+      <c r="PR26" s="35"/>
+      <c r="PS26" s="35"/>
+      <c r="PT26" s="35"/>
+      <c r="PU26" s="35"/>
+      <c r="PV26" s="35"/>
+      <c r="PW26" s="35"/>
+      <c r="PX26" s="35"/>
+      <c r="PY26" s="35"/>
+      <c r="PZ26" s="35"/>
+      <c r="QA26" s="35"/>
+      <c r="QB26" s="35"/>
+      <c r="QC26" s="35"/>
+      <c r="QD26" s="35"/>
+      <c r="QE26" s="35"/>
+      <c r="QF26" s="35"/>
+      <c r="QG26" s="35"/>
+      <c r="QH26" s="35"/>
+      <c r="QI26" s="35"/>
+      <c r="QJ26" s="35"/>
+      <c r="QK26" s="35"/>
+      <c r="QL26" s="35"/>
+      <c r="QM26" s="35"/>
+      <c r="QN26" s="35"/>
+      <c r="QO26" s="35"/>
+      <c r="QP26" s="35"/>
+      <c r="QQ26" s="35"/>
+      <c r="QR26" s="35"/>
+      <c r="QS26" s="35"/>
+      <c r="QT26" s="35"/>
+      <c r="QU26" s="35"/>
+      <c r="QV26" s="35"/>
+      <c r="QW26" s="35"/>
+      <c r="QX26" s="35"/>
+      <c r="QY26" s="35"/>
+      <c r="QZ26" s="35"/>
+      <c r="RA26" s="35"/>
+      <c r="RB26" s="35"/>
+      <c r="RC26" s="35"/>
+      <c r="RD26" s="35"/>
+      <c r="RE26" s="35"/>
+      <c r="RF26" s="35"/>
+      <c r="RG26" s="35"/>
+      <c r="RH26" s="35"/>
+      <c r="RI26" s="35"/>
+      <c r="RJ26" s="35"/>
+      <c r="RK26" s="35"/>
+      <c r="RL26" s="35"/>
+      <c r="RM26" s="35"/>
+      <c r="RN26" s="35"/>
+      <c r="RO26" s="35"/>
+      <c r="RP26" s="35"/>
+      <c r="RQ26" s="35"/>
+      <c r="RR26" s="35"/>
+      <c r="RS26" s="35"/>
+      <c r="RT26" s="35"/>
+      <c r="RU26" s="35"/>
+      <c r="RV26" s="35"/>
+      <c r="RW26" s="35"/>
+      <c r="RX26" s="35"/>
+      <c r="RY26" s="35"/>
+      <c r="RZ26" s="35"/>
+      <c r="SA26" s="35"/>
+      <c r="SB26" s="35"/>
+      <c r="SC26" s="35"/>
+      <c r="SD26" s="35"/>
+      <c r="SE26" s="35"/>
+      <c r="SF26" s="35"/>
+      <c r="SG26" s="35"/>
+      <c r="SH26" s="35"/>
+      <c r="SI26" s="35"/>
+      <c r="SJ26" s="35"/>
+      <c r="SK26" s="35"/>
+      <c r="SL26" s="35"/>
+      <c r="SM26" s="35"/>
+      <c r="SN26" s="35"/>
+      <c r="SO26" s="35"/>
+      <c r="SP26" s="35"/>
+      <c r="SQ26" s="35"/>
+      <c r="SR26" s="35"/>
+      <c r="SS26" s="35"/>
+      <c r="ST26" s="35"/>
+      <c r="SU26" s="35"/>
+      <c r="SV26" s="35"/>
+      <c r="SW26" s="35"/>
+      <c r="SX26" s="35"/>
+      <c r="SY26" s="35"/>
+      <c r="SZ26" s="35"/>
+      <c r="TA26" s="35"/>
+      <c r="TB26" s="35"/>
+      <c r="TC26" s="35"/>
+      <c r="TD26" s="35"/>
+      <c r="TE26" s="35"/>
+      <c r="TF26" s="35"/>
+      <c r="TG26" s="35"/>
+      <c r="TH26" s="35"/>
+      <c r="TI26" s="35"/>
+      <c r="TJ26" s="35"/>
+      <c r="TK26" s="35"/>
+      <c r="TL26" s="35"/>
+      <c r="TM26" s="35"/>
+      <c r="TN26" s="35"/>
+      <c r="TO26" s="35"/>
+      <c r="TP26" s="35"/>
+      <c r="TQ26" s="35"/>
+      <c r="TR26" s="35"/>
+      <c r="TS26" s="35"/>
+      <c r="TT26" s="35"/>
+      <c r="TU26" s="35"/>
+      <c r="TV26" s="35"/>
+      <c r="TW26" s="35"/>
+      <c r="TX26" s="35"/>
+      <c r="TY26" s="35"/>
+      <c r="TZ26" s="35"/>
+      <c r="UA26" s="35"/>
+      <c r="UB26" s="35"/>
+      <c r="UC26" s="35"/>
+      <c r="UD26" s="35"/>
+      <c r="UE26" s="35"/>
+      <c r="UF26" s="35"/>
+      <c r="UG26" s="35"/>
+      <c r="UH26" s="35"/>
+      <c r="UI26" s="35"/>
+      <c r="UJ26" s="35"/>
+      <c r="UK26" s="35"/>
+      <c r="UL26" s="35"/>
+      <c r="UM26" s="35"/>
+      <c r="UN26" s="35"/>
+      <c r="UO26" s="35"/>
+      <c r="UP26" s="35"/>
+      <c r="UQ26" s="35"/>
+      <c r="UR26" s="35"/>
+      <c r="US26" s="35"/>
+      <c r="UT26" s="35"/>
+      <c r="UU26" s="35"/>
+      <c r="UV26" s="35"/>
+      <c r="UW26" s="35"/>
+      <c r="UX26" s="35"/>
+      <c r="UY26" s="35"/>
+      <c r="UZ26" s="35"/>
+      <c r="VA26" s="35"/>
+      <c r="VB26" s="35"/>
+      <c r="VC26" s="35"/>
+      <c r="VD26" s="35"/>
+      <c r="VE26" s="35"/>
+      <c r="VF26" s="35"/>
+      <c r="VG26" s="35"/>
+      <c r="VH26" s="35"/>
+      <c r="VI26" s="35"/>
+      <c r="VJ26" s="35"/>
+      <c r="VK26" s="35"/>
+      <c r="VL26" s="35"/>
+      <c r="VM26" s="35"/>
+      <c r="VN26" s="35"/>
+      <c r="VO26" s="35"/>
+      <c r="VP26" s="35"/>
+      <c r="VQ26" s="35"/>
+      <c r="VR26" s="35"/>
+      <c r="VS26" s="35"/>
+      <c r="VT26" s="35"/>
+      <c r="VU26" s="35"/>
+      <c r="VV26" s="35"/>
+      <c r="VW26" s="35"/>
+      <c r="VX26" s="35"/>
+      <c r="VY26" s="35"/>
+      <c r="VZ26" s="35"/>
+      <c r="WA26" s="35"/>
+      <c r="WB26" s="35"/>
+      <c r="WC26" s="35"/>
+      <c r="WD26" s="35"/>
+      <c r="WE26" s="35"/>
+      <c r="WF26" s="35"/>
+      <c r="WG26" s="35"/>
+      <c r="WH26" s="35"/>
+      <c r="WI26" s="35"/>
+      <c r="WJ26" s="35"/>
+      <c r="WK26" s="35"/>
+      <c r="WL26" s="35"/>
+      <c r="WM26" s="35"/>
+      <c r="WN26" s="35"/>
+      <c r="WO26" s="35"/>
+      <c r="WP26" s="35"/>
+      <c r="WQ26" s="35"/>
+      <c r="WR26" s="35"/>
+      <c r="WS26" s="35"/>
+      <c r="WT26" s="35"/>
+      <c r="WU26" s="35"/>
+      <c r="WV26" s="35"/>
+      <c r="WW26" s="35"/>
+      <c r="WX26" s="35"/>
+      <c r="WY26" s="35"/>
+      <c r="WZ26" s="35"/>
+      <c r="XA26" s="35"/>
+      <c r="XB26" s="35"/>
+      <c r="XC26" s="35"/>
+      <c r="XD26" s="35"/>
+      <c r="XE26" s="35"/>
+      <c r="XF26" s="35"/>
+      <c r="XG26" s="35"/>
+      <c r="XH26" s="35"/>
+      <c r="XI26" s="35"/>
+      <c r="XJ26" s="35"/>
+      <c r="XK26" s="35"/>
+      <c r="XL26" s="35"/>
+      <c r="XM26" s="35"/>
+      <c r="XN26" s="35"/>
+      <c r="XO26" s="35"/>
+      <c r="XP26" s="35"/>
+      <c r="XQ26" s="35"/>
+      <c r="XR26" s="35"/>
+      <c r="XS26" s="35"/>
+      <c r="XT26" s="35"/>
+      <c r="XU26" s="35"/>
+      <c r="XV26" s="35"/>
+      <c r="XW26" s="35"/>
+      <c r="XX26" s="35"/>
+      <c r="XY26" s="35"/>
+      <c r="XZ26" s="35"/>
+      <c r="YA26" s="35"/>
+      <c r="YB26" s="35"/>
+      <c r="YC26" s="35"/>
+      <c r="YD26" s="35"/>
+      <c r="YE26" s="35"/>
+      <c r="YF26" s="35"/>
+      <c r="YG26" s="35"/>
+      <c r="YH26" s="35"/>
+      <c r="YI26" s="35"/>
+      <c r="YJ26" s="35"/>
+      <c r="YK26" s="35"/>
+      <c r="YL26" s="35"/>
+      <c r="YM26" s="35"/>
+      <c r="YN26" s="35"/>
+      <c r="YO26" s="35"/>
+      <c r="YP26" s="35"/>
+      <c r="YQ26" s="35"/>
+      <c r="YR26" s="35"/>
+      <c r="YS26" s="35"/>
+      <c r="YT26" s="35"/>
+      <c r="YU26" s="35"/>
+      <c r="YV26" s="35"/>
+      <c r="YW26" s="35"/>
+      <c r="YX26" s="35"/>
+      <c r="YY26" s="35"/>
+      <c r="YZ26" s="35"/>
+      <c r="ZA26" s="35"/>
+      <c r="ZB26" s="35"/>
+      <c r="ZC26" s="35"/>
+      <c r="ZD26" s="35"/>
+      <c r="ZE26" s="35"/>
+      <c r="ZF26" s="35"/>
+      <c r="ZG26" s="35"/>
+      <c r="ZH26" s="35"/>
+      <c r="ZI26" s="35"/>
+      <c r="ZJ26" s="35"/>
+      <c r="ZK26" s="35"/>
+      <c r="ZL26" s="35"/>
+      <c r="ZM26" s="35"/>
+      <c r="ZN26" s="35"/>
+      <c r="ZO26" s="35"/>
+      <c r="ZP26" s="35"/>
+      <c r="ZQ26" s="35"/>
+      <c r="ZR26" s="35"/>
+      <c r="ZS26" s="35"/>
+      <c r="ZT26" s="35"/>
+      <c r="ZU26" s="35"/>
+      <c r="ZV26" s="35"/>
+      <c r="ZW26" s="35"/>
+      <c r="ZX26" s="35"/>
+      <c r="ZY26" s="35"/>
+      <c r="ZZ26" s="35"/>
+      <c r="AAA26" s="35"/>
+      <c r="AAB26" s="35"/>
+      <c r="AAC26" s="35"/>
+      <c r="AAD26" s="35"/>
+      <c r="AAE26" s="35"/>
+      <c r="AAF26" s="35"/>
+      <c r="AAG26" s="35"/>
+      <c r="AAH26" s="35"/>
     </row>
-    <row r="27" spans="1:710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+    <row r="27" spans="1:710" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>UI_06</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+      <c r="AS27" s="35"/>
+      <c r="AT27" s="35"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="35"/>
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="35"/>
+      <c r="BB27" s="35"/>
+      <c r="BC27" s="35"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="35"/>
+      <c r="BF27" s="35"/>
+      <c r="BG27" s="35"/>
+      <c r="BH27" s="35"/>
+      <c r="BI27" s="35"/>
+      <c r="BJ27" s="35"/>
+      <c r="BK27" s="35"/>
+      <c r="BL27" s="35"/>
+      <c r="BM27" s="35"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="35"/>
+      <c r="BP27" s="35"/>
+      <c r="BQ27" s="35"/>
+      <c r="BR27" s="35"/>
+      <c r="BS27" s="35"/>
+      <c r="BT27" s="35"/>
+      <c r="BU27" s="35"/>
+      <c r="BV27" s="35"/>
+      <c r="BW27" s="35"/>
+      <c r="BX27" s="35"/>
+      <c r="BY27" s="35"/>
+      <c r="BZ27" s="35"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="35"/>
+      <c r="CC27" s="35"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="35"/>
+      <c r="CG27" s="35"/>
+      <c r="CH27" s="35"/>
+      <c r="CI27" s="35"/>
+      <c r="CJ27" s="35"/>
+      <c r="CK27" s="35"/>
+      <c r="CL27" s="35"/>
+      <c r="CM27" s="35"/>
+      <c r="CN27" s="35"/>
+      <c r="CO27" s="35"/>
+      <c r="CP27" s="35"/>
+      <c r="CQ27" s="35"/>
+      <c r="CR27" s="35"/>
+      <c r="CS27" s="35"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
+      <c r="CX27" s="35"/>
+      <c r="CY27" s="35"/>
+      <c r="CZ27" s="35"/>
+      <c r="DA27" s="35"/>
+      <c r="DB27" s="35"/>
+      <c r="DC27" s="35"/>
+      <c r="DD27" s="35"/>
+      <c r="DE27" s="35"/>
+      <c r="DF27" s="35"/>
+      <c r="DG27" s="35"/>
+      <c r="DH27" s="35"/>
+      <c r="DI27" s="35"/>
+      <c r="DJ27" s="35"/>
+      <c r="DK27" s="35"/>
+      <c r="DL27" s="35"/>
+      <c r="DM27" s="35"/>
+      <c r="DN27" s="35"/>
+      <c r="DO27" s="35"/>
+      <c r="DP27" s="35"/>
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="35"/>
+      <c r="DT27" s="35"/>
+      <c r="DU27" s="35"/>
+      <c r="DV27" s="35"/>
+      <c r="DW27" s="35"/>
+      <c r="DX27" s="35"/>
+      <c r="DY27" s="35"/>
+      <c r="DZ27" s="35"/>
+      <c r="EA27" s="35"/>
+      <c r="EB27" s="35"/>
+      <c r="EC27" s="35"/>
+      <c r="ED27" s="35"/>
+      <c r="EE27" s="35"/>
+      <c r="EF27" s="35"/>
+      <c r="EG27" s="35"/>
+      <c r="EH27" s="35"/>
+      <c r="EI27" s="35"/>
+      <c r="EJ27" s="35"/>
+      <c r="EK27" s="35"/>
+      <c r="EL27" s="35"/>
+      <c r="EM27" s="35"/>
+      <c r="EN27" s="35"/>
+      <c r="EO27" s="35"/>
+      <c r="EP27" s="35"/>
+      <c r="EQ27" s="35"/>
+      <c r="ER27" s="35"/>
+      <c r="ES27" s="35"/>
+      <c r="ET27" s="35"/>
+      <c r="EU27" s="35"/>
+      <c r="EV27" s="35"/>
+      <c r="EW27" s="35"/>
+      <c r="EX27" s="35"/>
+      <c r="EY27" s="35"/>
+      <c r="EZ27" s="35"/>
+      <c r="FA27" s="35"/>
+      <c r="FB27" s="35"/>
+      <c r="FC27" s="35"/>
+      <c r="FD27" s="35"/>
+      <c r="FE27" s="35"/>
+      <c r="FF27" s="35"/>
+      <c r="FG27" s="35"/>
+      <c r="FH27" s="35"/>
+      <c r="FI27" s="35"/>
+      <c r="FJ27" s="35"/>
+      <c r="FK27" s="35"/>
+      <c r="FL27" s="35"/>
+      <c r="FM27" s="35"/>
+      <c r="FN27" s="35"/>
+      <c r="FO27" s="35"/>
+      <c r="FP27" s="35"/>
+      <c r="FQ27" s="35"/>
+      <c r="FR27" s="35"/>
+      <c r="FS27" s="35"/>
+      <c r="FT27" s="35"/>
+      <c r="FU27" s="35"/>
+      <c r="FV27" s="35"/>
+      <c r="FW27" s="35"/>
+      <c r="FX27" s="35"/>
+      <c r="FY27" s="35"/>
+      <c r="FZ27" s="35"/>
+      <c r="GA27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GD27" s="35"/>
+      <c r="GE27" s="35"/>
+      <c r="GF27" s="35"/>
+      <c r="GG27" s="35"/>
+      <c r="GH27" s="35"/>
+      <c r="GI27" s="35"/>
+      <c r="GJ27" s="35"/>
+      <c r="GK27" s="35"/>
+      <c r="GL27" s="35"/>
+      <c r="GM27" s="35"/>
+      <c r="GN27" s="35"/>
+      <c r="GO27" s="35"/>
+      <c r="GP27" s="35"/>
+      <c r="GQ27" s="35"/>
+      <c r="GR27" s="35"/>
+      <c r="GS27" s="35"/>
+      <c r="GT27" s="35"/>
+      <c r="GU27" s="35"/>
+      <c r="GV27" s="35"/>
+      <c r="GW27" s="35"/>
+      <c r="GX27" s="35"/>
+      <c r="GY27" s="35"/>
+      <c r="GZ27" s="35"/>
+      <c r="HA27" s="35"/>
+      <c r="HB27" s="35"/>
+      <c r="HC27" s="35"/>
+      <c r="HD27" s="35"/>
+      <c r="HE27" s="35"/>
+      <c r="HF27" s="35"/>
+      <c r="HG27" s="35"/>
+      <c r="HH27" s="35"/>
+      <c r="HI27" s="35"/>
+      <c r="HJ27" s="35"/>
+      <c r="HK27" s="35"/>
+      <c r="HL27" s="35"/>
+      <c r="HM27" s="35"/>
+      <c r="HN27" s="35"/>
+      <c r="HO27" s="35"/>
+      <c r="HP27" s="35"/>
+      <c r="HQ27" s="35"/>
+      <c r="HR27" s="35"/>
+      <c r="HS27" s="35"/>
+      <c r="HT27" s="35"/>
+      <c r="HU27" s="35"/>
+      <c r="HV27" s="35"/>
+      <c r="HW27" s="35"/>
+      <c r="HX27" s="35"/>
+      <c r="HY27" s="35"/>
+      <c r="HZ27" s="35"/>
+      <c r="IA27" s="35"/>
+      <c r="IB27" s="35"/>
+      <c r="IC27" s="35"/>
+      <c r="ID27" s="35"/>
+      <c r="IE27" s="35"/>
+      <c r="IF27" s="35"/>
+      <c r="IG27" s="35"/>
+      <c r="IH27" s="35"/>
+      <c r="II27" s="35"/>
+      <c r="IJ27" s="35"/>
+      <c r="IK27" s="35"/>
+      <c r="IL27" s="35"/>
+      <c r="IM27" s="35"/>
+      <c r="IN27" s="35"/>
+      <c r="IO27" s="35"/>
+      <c r="IP27" s="35"/>
+      <c r="IQ27" s="35"/>
+      <c r="IR27" s="35"/>
+      <c r="IS27" s="35"/>
+      <c r="IT27" s="35"/>
+      <c r="IU27" s="35"/>
+      <c r="IV27" s="35"/>
+      <c r="IW27" s="35"/>
+      <c r="IX27" s="35"/>
+      <c r="IY27" s="35"/>
+      <c r="IZ27" s="35"/>
+      <c r="JA27" s="35"/>
+      <c r="JB27" s="35"/>
+      <c r="JC27" s="35"/>
+      <c r="JD27" s="35"/>
+      <c r="JE27" s="35"/>
+      <c r="JF27" s="35"/>
+      <c r="JG27" s="35"/>
+      <c r="JH27" s="35"/>
+      <c r="JI27" s="35"/>
+      <c r="JJ27" s="35"/>
+      <c r="JK27" s="35"/>
+      <c r="JL27" s="35"/>
+      <c r="JM27" s="35"/>
+      <c r="JN27" s="35"/>
+      <c r="JO27" s="35"/>
+      <c r="JP27" s="35"/>
+      <c r="JQ27" s="35"/>
+      <c r="JR27" s="35"/>
+      <c r="JS27" s="35"/>
+      <c r="JT27" s="35"/>
+      <c r="JU27" s="35"/>
+      <c r="JV27" s="35"/>
+      <c r="JW27" s="35"/>
+      <c r="JX27" s="35"/>
+      <c r="JY27" s="35"/>
+      <c r="JZ27" s="35"/>
+      <c r="KA27" s="35"/>
+      <c r="KB27" s="35"/>
+      <c r="KC27" s="35"/>
+      <c r="KD27" s="35"/>
+      <c r="KE27" s="35"/>
+      <c r="KF27" s="35"/>
+      <c r="KG27" s="35"/>
+      <c r="KH27" s="35"/>
+      <c r="KI27" s="35"/>
+      <c r="KJ27" s="35"/>
+      <c r="KK27" s="35"/>
+      <c r="KL27" s="35"/>
+      <c r="KM27" s="35"/>
+      <c r="KN27" s="35"/>
+      <c r="KO27" s="35"/>
+      <c r="KP27" s="35"/>
+      <c r="KQ27" s="35"/>
+      <c r="KR27" s="35"/>
+      <c r="KS27" s="35"/>
+      <c r="KT27" s="35"/>
+      <c r="KU27" s="35"/>
+      <c r="KV27" s="35"/>
+      <c r="KW27" s="35"/>
+      <c r="KX27" s="35"/>
+      <c r="KY27" s="35"/>
+      <c r="KZ27" s="35"/>
+      <c r="LA27" s="35"/>
+      <c r="LB27" s="35"/>
+      <c r="LC27" s="35"/>
+      <c r="LD27" s="35"/>
+      <c r="LE27" s="35"/>
+      <c r="LF27" s="35"/>
+      <c r="LG27" s="35"/>
+      <c r="LH27" s="35"/>
+      <c r="LI27" s="35"/>
+      <c r="LJ27" s="35"/>
+      <c r="LK27" s="35"/>
+      <c r="LL27" s="35"/>
+      <c r="LM27" s="35"/>
+      <c r="LN27" s="35"/>
+      <c r="LO27" s="35"/>
+      <c r="LP27" s="35"/>
+      <c r="LQ27" s="35"/>
+      <c r="LR27" s="35"/>
+      <c r="LS27" s="35"/>
+      <c r="LT27" s="35"/>
+      <c r="LU27" s="35"/>
+      <c r="LV27" s="35"/>
+      <c r="LW27" s="35"/>
+      <c r="LX27" s="35"/>
+      <c r="LY27" s="35"/>
+      <c r="LZ27" s="35"/>
+      <c r="MA27" s="35"/>
+      <c r="MB27" s="35"/>
+      <c r="MC27" s="35"/>
+      <c r="MD27" s="35"/>
+      <c r="ME27" s="35"/>
+      <c r="MF27" s="35"/>
+      <c r="MG27" s="35"/>
+      <c r="MH27" s="35"/>
+      <c r="MI27" s="35"/>
+      <c r="MJ27" s="35"/>
+      <c r="MK27" s="35"/>
+      <c r="ML27" s="35"/>
+      <c r="MM27" s="35"/>
+      <c r="MN27" s="35"/>
+      <c r="MO27" s="35"/>
+      <c r="MP27" s="35"/>
+      <c r="MQ27" s="35"/>
+      <c r="MR27" s="35"/>
+      <c r="MS27" s="35"/>
+      <c r="MT27" s="35"/>
+      <c r="MU27" s="35"/>
+      <c r="MV27" s="35"/>
+      <c r="MW27" s="35"/>
+      <c r="MX27" s="35"/>
+      <c r="MY27" s="35"/>
+      <c r="MZ27" s="35"/>
+      <c r="NA27" s="35"/>
+      <c r="NB27" s="35"/>
+      <c r="NC27" s="35"/>
+      <c r="ND27" s="35"/>
+      <c r="NE27" s="35"/>
+      <c r="NF27" s="35"/>
+      <c r="NG27" s="35"/>
+      <c r="NH27" s="35"/>
+      <c r="NI27" s="35"/>
+      <c r="NJ27" s="35"/>
+      <c r="NK27" s="35"/>
+      <c r="NL27" s="35"/>
+      <c r="NM27" s="35"/>
+      <c r="NN27" s="35"/>
+      <c r="NO27" s="35"/>
+      <c r="NP27" s="35"/>
+      <c r="NQ27" s="35"/>
+      <c r="NR27" s="35"/>
+      <c r="NS27" s="35"/>
+      <c r="NT27" s="35"/>
+      <c r="NU27" s="35"/>
+      <c r="NV27" s="35"/>
+      <c r="NW27" s="35"/>
+      <c r="NX27" s="35"/>
+      <c r="NY27" s="35"/>
+      <c r="NZ27" s="35"/>
+      <c r="OA27" s="35"/>
+      <c r="OB27" s="35"/>
+      <c r="OC27" s="35"/>
+      <c r="OD27" s="35"/>
+      <c r="OE27" s="35"/>
+      <c r="OF27" s="35"/>
+      <c r="OG27" s="35"/>
+      <c r="OH27" s="35"/>
+      <c r="OI27" s="35"/>
+      <c r="OJ27" s="35"/>
+      <c r="OK27" s="35"/>
+      <c r="OL27" s="35"/>
+      <c r="OM27" s="35"/>
+      <c r="ON27" s="35"/>
+      <c r="OO27" s="35"/>
+      <c r="OP27" s="35"/>
+      <c r="OQ27" s="35"/>
+      <c r="OR27" s="35"/>
+      <c r="OS27" s="35"/>
+      <c r="OT27" s="35"/>
+      <c r="OU27" s="35"/>
+      <c r="OV27" s="35"/>
+      <c r="OW27" s="35"/>
+      <c r="OX27" s="35"/>
+      <c r="OY27" s="35"/>
+      <c r="OZ27" s="35"/>
+      <c r="PA27" s="35"/>
+      <c r="PB27" s="35"/>
+      <c r="PC27" s="35"/>
+      <c r="PD27" s="35"/>
+      <c r="PE27" s="35"/>
+      <c r="PF27" s="35"/>
+      <c r="PG27" s="35"/>
+      <c r="PH27" s="35"/>
+      <c r="PI27" s="35"/>
+      <c r="PJ27" s="35"/>
+      <c r="PK27" s="35"/>
+      <c r="PL27" s="35"/>
+      <c r="PM27" s="35"/>
+      <c r="PN27" s="35"/>
+      <c r="PO27" s="35"/>
+      <c r="PP27" s="35"/>
+      <c r="PQ27" s="35"/>
+      <c r="PR27" s="35"/>
+      <c r="PS27" s="35"/>
+      <c r="PT27" s="35"/>
+      <c r="PU27" s="35"/>
+      <c r="PV27" s="35"/>
+      <c r="PW27" s="35"/>
+      <c r="PX27" s="35"/>
+      <c r="PY27" s="35"/>
+      <c r="PZ27" s="35"/>
+      <c r="QA27" s="35"/>
+      <c r="QB27" s="35"/>
+      <c r="QC27" s="35"/>
+      <c r="QD27" s="35"/>
+      <c r="QE27" s="35"/>
+      <c r="QF27" s="35"/>
+      <c r="QG27" s="35"/>
+      <c r="QH27" s="35"/>
+      <c r="QI27" s="35"/>
+      <c r="QJ27" s="35"/>
+      <c r="QK27" s="35"/>
+      <c r="QL27" s="35"/>
+      <c r="QM27" s="35"/>
+      <c r="QN27" s="35"/>
+      <c r="QO27" s="35"/>
+      <c r="QP27" s="35"/>
+      <c r="QQ27" s="35"/>
+      <c r="QR27" s="35"/>
+      <c r="QS27" s="35"/>
+      <c r="QT27" s="35"/>
+      <c r="QU27" s="35"/>
+      <c r="QV27" s="35"/>
+      <c r="QW27" s="35"/>
+      <c r="QX27" s="35"/>
+      <c r="QY27" s="35"/>
+      <c r="QZ27" s="35"/>
+      <c r="RA27" s="35"/>
+      <c r="RB27" s="35"/>
+      <c r="RC27" s="35"/>
+      <c r="RD27" s="35"/>
+      <c r="RE27" s="35"/>
+      <c r="RF27" s="35"/>
+      <c r="RG27" s="35"/>
+      <c r="RH27" s="35"/>
+      <c r="RI27" s="35"/>
+      <c r="RJ27" s="35"/>
+      <c r="RK27" s="35"/>
+      <c r="RL27" s="35"/>
+      <c r="RM27" s="35"/>
+      <c r="RN27" s="35"/>
+      <c r="RO27" s="35"/>
+      <c r="RP27" s="35"/>
+      <c r="RQ27" s="35"/>
+      <c r="RR27" s="35"/>
+      <c r="RS27" s="35"/>
+      <c r="RT27" s="35"/>
+      <c r="RU27" s="35"/>
+      <c r="RV27" s="35"/>
+      <c r="RW27" s="35"/>
+      <c r="RX27" s="35"/>
+      <c r="RY27" s="35"/>
+      <c r="RZ27" s="35"/>
+      <c r="SA27" s="35"/>
+      <c r="SB27" s="35"/>
+      <c r="SC27" s="35"/>
+      <c r="SD27" s="35"/>
+      <c r="SE27" s="35"/>
+      <c r="SF27" s="35"/>
+      <c r="SG27" s="35"/>
+      <c r="SH27" s="35"/>
+      <c r="SI27" s="35"/>
+      <c r="SJ27" s="35"/>
+      <c r="SK27" s="35"/>
+      <c r="SL27" s="35"/>
+      <c r="SM27" s="35"/>
+      <c r="SN27" s="35"/>
+      <c r="SO27" s="35"/>
+      <c r="SP27" s="35"/>
+      <c r="SQ27" s="35"/>
+      <c r="SR27" s="35"/>
+      <c r="SS27" s="35"/>
+      <c r="ST27" s="35"/>
+      <c r="SU27" s="35"/>
+      <c r="SV27" s="35"/>
+      <c r="SW27" s="35"/>
+      <c r="SX27" s="35"/>
+      <c r="SY27" s="35"/>
+      <c r="SZ27" s="35"/>
+      <c r="TA27" s="35"/>
+      <c r="TB27" s="35"/>
+      <c r="TC27" s="35"/>
+      <c r="TD27" s="35"/>
+      <c r="TE27" s="35"/>
+      <c r="TF27" s="35"/>
+      <c r="TG27" s="35"/>
+      <c r="TH27" s="35"/>
+      <c r="TI27" s="35"/>
+      <c r="TJ27" s="35"/>
+      <c r="TK27" s="35"/>
+      <c r="TL27" s="35"/>
+      <c r="TM27" s="35"/>
+      <c r="TN27" s="35"/>
+      <c r="TO27" s="35"/>
+      <c r="TP27" s="35"/>
+      <c r="TQ27" s="35"/>
+      <c r="TR27" s="35"/>
+      <c r="TS27" s="35"/>
+      <c r="TT27" s="35"/>
+      <c r="TU27" s="35"/>
+      <c r="TV27" s="35"/>
+      <c r="TW27" s="35"/>
+      <c r="TX27" s="35"/>
+      <c r="TY27" s="35"/>
+      <c r="TZ27" s="35"/>
+      <c r="UA27" s="35"/>
+      <c r="UB27" s="35"/>
+      <c r="UC27" s="35"/>
+      <c r="UD27" s="35"/>
+      <c r="UE27" s="35"/>
+      <c r="UF27" s="35"/>
+      <c r="UG27" s="35"/>
+      <c r="UH27" s="35"/>
+      <c r="UI27" s="35"/>
+      <c r="UJ27" s="35"/>
+      <c r="UK27" s="35"/>
+      <c r="UL27" s="35"/>
+      <c r="UM27" s="35"/>
+      <c r="UN27" s="35"/>
+      <c r="UO27" s="35"/>
+      <c r="UP27" s="35"/>
+      <c r="UQ27" s="35"/>
+      <c r="UR27" s="35"/>
+      <c r="US27" s="35"/>
+      <c r="UT27" s="35"/>
+      <c r="UU27" s="35"/>
+      <c r="UV27" s="35"/>
+      <c r="UW27" s="35"/>
+      <c r="UX27" s="35"/>
+      <c r="UY27" s="35"/>
+      <c r="UZ27" s="35"/>
+      <c r="VA27" s="35"/>
+      <c r="VB27" s="35"/>
+      <c r="VC27" s="35"/>
+      <c r="VD27" s="35"/>
+      <c r="VE27" s="35"/>
+      <c r="VF27" s="35"/>
+      <c r="VG27" s="35"/>
+      <c r="VH27" s="35"/>
+      <c r="VI27" s="35"/>
+      <c r="VJ27" s="35"/>
+      <c r="VK27" s="35"/>
+      <c r="VL27" s="35"/>
+      <c r="VM27" s="35"/>
+      <c r="VN27" s="35"/>
+      <c r="VO27" s="35"/>
+      <c r="VP27" s="35"/>
+      <c r="VQ27" s="35"/>
+      <c r="VR27" s="35"/>
+      <c r="VS27" s="35"/>
+      <c r="VT27" s="35"/>
+      <c r="VU27" s="35"/>
+      <c r="VV27" s="35"/>
+      <c r="VW27" s="35"/>
+      <c r="VX27" s="35"/>
+      <c r="VY27" s="35"/>
+      <c r="VZ27" s="35"/>
+      <c r="WA27" s="35"/>
+      <c r="WB27" s="35"/>
+      <c r="WC27" s="35"/>
+      <c r="WD27" s="35"/>
+      <c r="WE27" s="35"/>
+      <c r="WF27" s="35"/>
+      <c r="WG27" s="35"/>
+      <c r="WH27" s="35"/>
+      <c r="WI27" s="35"/>
+      <c r="WJ27" s="35"/>
+      <c r="WK27" s="35"/>
+      <c r="WL27" s="35"/>
+      <c r="WM27" s="35"/>
+      <c r="WN27" s="35"/>
+      <c r="WO27" s="35"/>
+      <c r="WP27" s="35"/>
+      <c r="WQ27" s="35"/>
+      <c r="WR27" s="35"/>
+      <c r="WS27" s="35"/>
+      <c r="WT27" s="35"/>
+      <c r="WU27" s="35"/>
+      <c r="WV27" s="35"/>
+      <c r="WW27" s="35"/>
+      <c r="WX27" s="35"/>
+      <c r="WY27" s="35"/>
+      <c r="WZ27" s="35"/>
+      <c r="XA27" s="35"/>
+      <c r="XB27" s="35"/>
+      <c r="XC27" s="35"/>
+      <c r="XD27" s="35"/>
+      <c r="XE27" s="35"/>
+      <c r="XF27" s="35"/>
+      <c r="XG27" s="35"/>
+      <c r="XH27" s="35"/>
+      <c r="XI27" s="35"/>
+      <c r="XJ27" s="35"/>
+      <c r="XK27" s="35"/>
+      <c r="XL27" s="35"/>
+      <c r="XM27" s="35"/>
+      <c r="XN27" s="35"/>
+      <c r="XO27" s="35"/>
+      <c r="XP27" s="35"/>
+      <c r="XQ27" s="35"/>
+      <c r="XR27" s="35"/>
+      <c r="XS27" s="35"/>
+      <c r="XT27" s="35"/>
+      <c r="XU27" s="35"/>
+      <c r="XV27" s="35"/>
+      <c r="XW27" s="35"/>
+      <c r="XX27" s="35"/>
+      <c r="XY27" s="35"/>
+      <c r="XZ27" s="35"/>
+      <c r="YA27" s="35"/>
+      <c r="YB27" s="35"/>
+      <c r="YC27" s="35"/>
+      <c r="YD27" s="35"/>
+      <c r="YE27" s="35"/>
+      <c r="YF27" s="35"/>
+      <c r="YG27" s="35"/>
+      <c r="YH27" s="35"/>
+      <c r="YI27" s="35"/>
+      <c r="YJ27" s="35"/>
+      <c r="YK27" s="35"/>
+      <c r="YL27" s="35"/>
+      <c r="YM27" s="35"/>
+      <c r="YN27" s="35"/>
+      <c r="YO27" s="35"/>
+      <c r="YP27" s="35"/>
+      <c r="YQ27" s="35"/>
+      <c r="YR27" s="35"/>
+      <c r="YS27" s="35"/>
+      <c r="YT27" s="35"/>
+      <c r="YU27" s="35"/>
+      <c r="YV27" s="35"/>
+      <c r="YW27" s="35"/>
+      <c r="YX27" s="35"/>
+      <c r="YY27" s="35"/>
+      <c r="YZ27" s="35"/>
+      <c r="ZA27" s="35"/>
+      <c r="ZB27" s="35"/>
+      <c r="ZC27" s="35"/>
+      <c r="ZD27" s="35"/>
+      <c r="ZE27" s="35"/>
+      <c r="ZF27" s="35"/>
+      <c r="ZG27" s="35"/>
+      <c r="ZH27" s="35"/>
+      <c r="ZI27" s="35"/>
+      <c r="ZJ27" s="35"/>
+      <c r="ZK27" s="35"/>
+      <c r="ZL27" s="35"/>
+      <c r="ZM27" s="35"/>
+      <c r="ZN27" s="35"/>
+      <c r="ZO27" s="35"/>
+      <c r="ZP27" s="35"/>
+      <c r="ZQ27" s="35"/>
+      <c r="ZR27" s="35"/>
+      <c r="ZS27" s="35"/>
+      <c r="ZT27" s="35"/>
+      <c r="ZU27" s="35"/>
+      <c r="ZV27" s="35"/>
+      <c r="ZW27" s="35"/>
+      <c r="ZX27" s="35"/>
+      <c r="ZY27" s="35"/>
+      <c r="ZZ27" s="35"/>
+      <c r="AAA27" s="35"/>
+      <c r="AAB27" s="35"/>
+      <c r="AAC27" s="35"/>
+      <c r="AAD27" s="35"/>
+      <c r="AAE27" s="35"/>
+      <c r="AAF27" s="35"/>
+      <c r="AAG27" s="35"/>
+      <c r="AAH27" s="35"/>
     </row>
-    <row r="28" spans="1:710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+    <row r="28" spans="1:710" s="36" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="71"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="35"/>
+      <c r="BB28" s="35"/>
+      <c r="BC28" s="35"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="35"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="35"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="35"/>
+      <c r="BJ28" s="35"/>
+      <c r="BK28" s="35"/>
+      <c r="BL28" s="35"/>
+      <c r="BM28" s="35"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="35"/>
+      <c r="BP28" s="35"/>
+      <c r="BQ28" s="35"/>
+      <c r="BR28" s="35"/>
+      <c r="BS28" s="35"/>
+      <c r="BT28" s="35"/>
+      <c r="BU28" s="35"/>
+      <c r="BV28" s="35"/>
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="35"/>
+      <c r="BZ28" s="35"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="35"/>
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="35"/>
+      <c r="CK28" s="35"/>
+      <c r="CL28" s="35"/>
+      <c r="CM28" s="35"/>
+      <c r="CN28" s="35"/>
+      <c r="CO28" s="35"/>
+      <c r="CP28" s="35"/>
+      <c r="CQ28" s="35"/>
+      <c r="CR28" s="35"/>
+      <c r="CS28" s="35"/>
+      <c r="CT28" s="35"/>
+      <c r="CU28" s="35"/>
+      <c r="CV28" s="35"/>
+      <c r="CW28" s="35"/>
+      <c r="CX28" s="35"/>
+      <c r="CY28" s="35"/>
+      <c r="CZ28" s="35"/>
+      <c r="DA28" s="35"/>
+      <c r="DB28" s="35"/>
+      <c r="DC28" s="35"/>
+      <c r="DD28" s="35"/>
+      <c r="DE28" s="35"/>
+      <c r="DF28" s="35"/>
+      <c r="DG28" s="35"/>
+      <c r="DH28" s="35"/>
+      <c r="DI28" s="35"/>
+      <c r="DJ28" s="35"/>
+      <c r="DK28" s="35"/>
+      <c r="DL28" s="35"/>
+      <c r="DM28" s="35"/>
+      <c r="DN28" s="35"/>
+      <c r="DO28" s="35"/>
+      <c r="DP28" s="35"/>
+      <c r="DQ28" s="35"/>
+      <c r="DR28" s="35"/>
+      <c r="DS28" s="35"/>
+      <c r="DT28" s="35"/>
+      <c r="DU28" s="35"/>
+      <c r="DV28" s="35"/>
+      <c r="DW28" s="35"/>
+      <c r="DX28" s="35"/>
+      <c r="DY28" s="35"/>
+      <c r="DZ28" s="35"/>
+      <c r="EA28" s="35"/>
+      <c r="EB28" s="35"/>
+      <c r="EC28" s="35"/>
+      <c r="ED28" s="35"/>
+      <c r="EE28" s="35"/>
+      <c r="EF28" s="35"/>
+      <c r="EG28" s="35"/>
+      <c r="EH28" s="35"/>
+      <c r="EI28" s="35"/>
+      <c r="EJ28" s="35"/>
+      <c r="EK28" s="35"/>
+      <c r="EL28" s="35"/>
+      <c r="EM28" s="35"/>
+      <c r="EN28" s="35"/>
+      <c r="EO28" s="35"/>
+      <c r="EP28" s="35"/>
+      <c r="EQ28" s="35"/>
+      <c r="ER28" s="35"/>
+      <c r="ES28" s="35"/>
+      <c r="ET28" s="35"/>
+      <c r="EU28" s="35"/>
+      <c r="EV28" s="35"/>
+      <c r="EW28" s="35"/>
+      <c r="EX28" s="35"/>
+      <c r="EY28" s="35"/>
+      <c r="EZ28" s="35"/>
+      <c r="FA28" s="35"/>
+      <c r="FB28" s="35"/>
+      <c r="FC28" s="35"/>
+      <c r="FD28" s="35"/>
+      <c r="FE28" s="35"/>
+      <c r="FF28" s="35"/>
+      <c r="FG28" s="35"/>
+      <c r="FH28" s="35"/>
+      <c r="FI28" s="35"/>
+      <c r="FJ28" s="35"/>
+      <c r="FK28" s="35"/>
+      <c r="FL28" s="35"/>
+      <c r="FM28" s="35"/>
+      <c r="FN28" s="35"/>
+      <c r="FO28" s="35"/>
+      <c r="FP28" s="35"/>
+      <c r="FQ28" s="35"/>
+      <c r="FR28" s="35"/>
+      <c r="FS28" s="35"/>
+      <c r="FT28" s="35"/>
+      <c r="FU28" s="35"/>
+      <c r="FV28" s="35"/>
+      <c r="FW28" s="35"/>
+      <c r="FX28" s="35"/>
+      <c r="FY28" s="35"/>
+      <c r="FZ28" s="35"/>
+      <c r="GA28" s="35"/>
+      <c r="GB28" s="35"/>
+      <c r="GC28" s="35"/>
+      <c r="GD28" s="35"/>
+      <c r="GE28" s="35"/>
+      <c r="GF28" s="35"/>
+      <c r="GG28" s="35"/>
+      <c r="GH28" s="35"/>
+      <c r="GI28" s="35"/>
+      <c r="GJ28" s="35"/>
+      <c r="GK28" s="35"/>
+      <c r="GL28" s="35"/>
+      <c r="GM28" s="35"/>
+      <c r="GN28" s="35"/>
+      <c r="GO28" s="35"/>
+      <c r="GP28" s="35"/>
+      <c r="GQ28" s="35"/>
+      <c r="GR28" s="35"/>
+      <c r="GS28" s="35"/>
+      <c r="GT28" s="35"/>
+      <c r="GU28" s="35"/>
+      <c r="GV28" s="35"/>
+      <c r="GW28" s="35"/>
+      <c r="GX28" s="35"/>
+      <c r="GY28" s="35"/>
+      <c r="GZ28" s="35"/>
+      <c r="HA28" s="35"/>
+      <c r="HB28" s="35"/>
+      <c r="HC28" s="35"/>
+      <c r="HD28" s="35"/>
+      <c r="HE28" s="35"/>
+      <c r="HF28" s="35"/>
+      <c r="HG28" s="35"/>
+      <c r="HH28" s="35"/>
+      <c r="HI28" s="35"/>
+      <c r="HJ28" s="35"/>
+      <c r="HK28" s="35"/>
+      <c r="HL28" s="35"/>
+      <c r="HM28" s="35"/>
+      <c r="HN28" s="35"/>
+      <c r="HO28" s="35"/>
+      <c r="HP28" s="35"/>
+      <c r="HQ28" s="35"/>
+      <c r="HR28" s="35"/>
+      <c r="HS28" s="35"/>
+      <c r="HT28" s="35"/>
+      <c r="HU28" s="35"/>
+      <c r="HV28" s="35"/>
+      <c r="HW28" s="35"/>
+      <c r="HX28" s="35"/>
+      <c r="HY28" s="35"/>
+      <c r="HZ28" s="35"/>
+      <c r="IA28" s="35"/>
+      <c r="IB28" s="35"/>
+      <c r="IC28" s="35"/>
+      <c r="ID28" s="35"/>
+      <c r="IE28" s="35"/>
+      <c r="IF28" s="35"/>
+      <c r="IG28" s="35"/>
+      <c r="IH28" s="35"/>
+      <c r="II28" s="35"/>
+      <c r="IJ28" s="35"/>
+      <c r="IK28" s="35"/>
+      <c r="IL28" s="35"/>
+      <c r="IM28" s="35"/>
+      <c r="IN28" s="35"/>
+      <c r="IO28" s="35"/>
+      <c r="IP28" s="35"/>
+      <c r="IQ28" s="35"/>
+      <c r="IR28" s="35"/>
+      <c r="IS28" s="35"/>
+      <c r="IT28" s="35"/>
+      <c r="IU28" s="35"/>
+      <c r="IV28" s="35"/>
+      <c r="IW28" s="35"/>
+      <c r="IX28" s="35"/>
+      <c r="IY28" s="35"/>
+      <c r="IZ28" s="35"/>
+      <c r="JA28" s="35"/>
+      <c r="JB28" s="35"/>
+      <c r="JC28" s="35"/>
+      <c r="JD28" s="35"/>
+      <c r="JE28" s="35"/>
+      <c r="JF28" s="35"/>
+      <c r="JG28" s="35"/>
+      <c r="JH28" s="35"/>
+      <c r="JI28" s="35"/>
+      <c r="JJ28" s="35"/>
+      <c r="JK28" s="35"/>
+      <c r="JL28" s="35"/>
+      <c r="JM28" s="35"/>
+      <c r="JN28" s="35"/>
+      <c r="JO28" s="35"/>
+      <c r="JP28" s="35"/>
+      <c r="JQ28" s="35"/>
+      <c r="JR28" s="35"/>
+      <c r="JS28" s="35"/>
+      <c r="JT28" s="35"/>
+      <c r="JU28" s="35"/>
+      <c r="JV28" s="35"/>
+      <c r="JW28" s="35"/>
+      <c r="JX28" s="35"/>
+      <c r="JY28" s="35"/>
+      <c r="JZ28" s="35"/>
+      <c r="KA28" s="35"/>
+      <c r="KB28" s="35"/>
+      <c r="KC28" s="35"/>
+      <c r="KD28" s="35"/>
+      <c r="KE28" s="35"/>
+      <c r="KF28" s="35"/>
+      <c r="KG28" s="35"/>
+      <c r="KH28" s="35"/>
+      <c r="KI28" s="35"/>
+      <c r="KJ28" s="35"/>
+      <c r="KK28" s="35"/>
+      <c r="KL28" s="35"/>
+      <c r="KM28" s="35"/>
+      <c r="KN28" s="35"/>
+      <c r="KO28" s="35"/>
+      <c r="KP28" s="35"/>
+      <c r="KQ28" s="35"/>
+      <c r="KR28" s="35"/>
+      <c r="KS28" s="35"/>
+      <c r="KT28" s="35"/>
+      <c r="KU28" s="35"/>
+      <c r="KV28" s="35"/>
+      <c r="KW28" s="35"/>
+      <c r="KX28" s="35"/>
+      <c r="KY28" s="35"/>
+      <c r="KZ28" s="35"/>
+      <c r="LA28" s="35"/>
+      <c r="LB28" s="35"/>
+      <c r="LC28" s="35"/>
+      <c r="LD28" s="35"/>
+      <c r="LE28" s="35"/>
+      <c r="LF28" s="35"/>
+      <c r="LG28" s="35"/>
+      <c r="LH28" s="35"/>
+      <c r="LI28" s="35"/>
+      <c r="LJ28" s="35"/>
+      <c r="LK28" s="35"/>
+      <c r="LL28" s="35"/>
+      <c r="LM28" s="35"/>
+      <c r="LN28" s="35"/>
+      <c r="LO28" s="35"/>
+      <c r="LP28" s="35"/>
+      <c r="LQ28" s="35"/>
+      <c r="LR28" s="35"/>
+      <c r="LS28" s="35"/>
+      <c r="LT28" s="35"/>
+      <c r="LU28" s="35"/>
+      <c r="LV28" s="35"/>
+      <c r="LW28" s="35"/>
+      <c r="LX28" s="35"/>
+      <c r="LY28" s="35"/>
+      <c r="LZ28" s="35"/>
+      <c r="MA28" s="35"/>
+      <c r="MB28" s="35"/>
+      <c r="MC28" s="35"/>
+      <c r="MD28" s="35"/>
+      <c r="ME28" s="35"/>
+      <c r="MF28" s="35"/>
+      <c r="MG28" s="35"/>
+      <c r="MH28" s="35"/>
+      <c r="MI28" s="35"/>
+      <c r="MJ28" s="35"/>
+      <c r="MK28" s="35"/>
+      <c r="ML28" s="35"/>
+      <c r="MM28" s="35"/>
+      <c r="MN28" s="35"/>
+      <c r="MO28" s="35"/>
+      <c r="MP28" s="35"/>
+      <c r="MQ28" s="35"/>
+      <c r="MR28" s="35"/>
+      <c r="MS28" s="35"/>
+      <c r="MT28" s="35"/>
+      <c r="MU28" s="35"/>
+      <c r="MV28" s="35"/>
+      <c r="MW28" s="35"/>
+      <c r="MX28" s="35"/>
+      <c r="MY28" s="35"/>
+      <c r="MZ28" s="35"/>
+      <c r="NA28" s="35"/>
+      <c r="NB28" s="35"/>
+      <c r="NC28" s="35"/>
+      <c r="ND28" s="35"/>
+      <c r="NE28" s="35"/>
+      <c r="NF28" s="35"/>
+      <c r="NG28" s="35"/>
+      <c r="NH28" s="35"/>
+      <c r="NI28" s="35"/>
+      <c r="NJ28" s="35"/>
+      <c r="NK28" s="35"/>
+      <c r="NL28" s="35"/>
+      <c r="NM28" s="35"/>
+      <c r="NN28" s="35"/>
+      <c r="NO28" s="35"/>
+      <c r="NP28" s="35"/>
+      <c r="NQ28" s="35"/>
+      <c r="NR28" s="35"/>
+      <c r="NS28" s="35"/>
+      <c r="NT28" s="35"/>
+      <c r="NU28" s="35"/>
+      <c r="NV28" s="35"/>
+      <c r="NW28" s="35"/>
+      <c r="NX28" s="35"/>
+      <c r="NY28" s="35"/>
+      <c r="NZ28" s="35"/>
+      <c r="OA28" s="35"/>
+      <c r="OB28" s="35"/>
+      <c r="OC28" s="35"/>
+      <c r="OD28" s="35"/>
+      <c r="OE28" s="35"/>
+      <c r="OF28" s="35"/>
+      <c r="OG28" s="35"/>
+      <c r="OH28" s="35"/>
+      <c r="OI28" s="35"/>
+      <c r="OJ28" s="35"/>
+      <c r="OK28" s="35"/>
+      <c r="OL28" s="35"/>
+      <c r="OM28" s="35"/>
+      <c r="ON28" s="35"/>
+      <c r="OO28" s="35"/>
+      <c r="OP28" s="35"/>
+      <c r="OQ28" s="35"/>
+      <c r="OR28" s="35"/>
+      <c r="OS28" s="35"/>
+      <c r="OT28" s="35"/>
+      <c r="OU28" s="35"/>
+      <c r="OV28" s="35"/>
+      <c r="OW28" s="35"/>
+      <c r="OX28" s="35"/>
+      <c r="OY28" s="35"/>
+      <c r="OZ28" s="35"/>
+      <c r="PA28" s="35"/>
+      <c r="PB28" s="35"/>
+      <c r="PC28" s="35"/>
+      <c r="PD28" s="35"/>
+      <c r="PE28" s="35"/>
+      <c r="PF28" s="35"/>
+      <c r="PG28" s="35"/>
+      <c r="PH28" s="35"/>
+      <c r="PI28" s="35"/>
+      <c r="PJ28" s="35"/>
+      <c r="PK28" s="35"/>
+      <c r="PL28" s="35"/>
+      <c r="PM28" s="35"/>
+      <c r="PN28" s="35"/>
+      <c r="PO28" s="35"/>
+      <c r="PP28" s="35"/>
+      <c r="PQ28" s="35"/>
+      <c r="PR28" s="35"/>
+      <c r="PS28" s="35"/>
+      <c r="PT28" s="35"/>
+      <c r="PU28" s="35"/>
+      <c r="PV28" s="35"/>
+      <c r="PW28" s="35"/>
+      <c r="PX28" s="35"/>
+      <c r="PY28" s="35"/>
+      <c r="PZ28" s="35"/>
+      <c r="QA28" s="35"/>
+      <c r="QB28" s="35"/>
+      <c r="QC28" s="35"/>
+      <c r="QD28" s="35"/>
+      <c r="QE28" s="35"/>
+      <c r="QF28" s="35"/>
+      <c r="QG28" s="35"/>
+      <c r="QH28" s="35"/>
+      <c r="QI28" s="35"/>
+      <c r="QJ28" s="35"/>
+      <c r="QK28" s="35"/>
+      <c r="QL28" s="35"/>
+      <c r="QM28" s="35"/>
+      <c r="QN28" s="35"/>
+      <c r="QO28" s="35"/>
+      <c r="QP28" s="35"/>
+      <c r="QQ28" s="35"/>
+      <c r="QR28" s="35"/>
+      <c r="QS28" s="35"/>
+      <c r="QT28" s="35"/>
+      <c r="QU28" s="35"/>
+      <c r="QV28" s="35"/>
+      <c r="QW28" s="35"/>
+      <c r="QX28" s="35"/>
+      <c r="QY28" s="35"/>
+      <c r="QZ28" s="35"/>
+      <c r="RA28" s="35"/>
+      <c r="RB28" s="35"/>
+      <c r="RC28" s="35"/>
+      <c r="RD28" s="35"/>
+      <c r="RE28" s="35"/>
+      <c r="RF28" s="35"/>
+      <c r="RG28" s="35"/>
+      <c r="RH28" s="35"/>
+      <c r="RI28" s="35"/>
+      <c r="RJ28" s="35"/>
+      <c r="RK28" s="35"/>
+      <c r="RL28" s="35"/>
+      <c r="RM28" s="35"/>
+      <c r="RN28" s="35"/>
+      <c r="RO28" s="35"/>
+      <c r="RP28" s="35"/>
+      <c r="RQ28" s="35"/>
+      <c r="RR28" s="35"/>
+      <c r="RS28" s="35"/>
+      <c r="RT28" s="35"/>
+      <c r="RU28" s="35"/>
+      <c r="RV28" s="35"/>
+      <c r="RW28" s="35"/>
+      <c r="RX28" s="35"/>
+      <c r="RY28" s="35"/>
+      <c r="RZ28" s="35"/>
+      <c r="SA28" s="35"/>
+      <c r="SB28" s="35"/>
+      <c r="SC28" s="35"/>
+      <c r="SD28" s="35"/>
+      <c r="SE28" s="35"/>
+      <c r="SF28" s="35"/>
+      <c r="SG28" s="35"/>
+      <c r="SH28" s="35"/>
+      <c r="SI28" s="35"/>
+      <c r="SJ28" s="35"/>
+      <c r="SK28" s="35"/>
+      <c r="SL28" s="35"/>
+      <c r="SM28" s="35"/>
+      <c r="SN28" s="35"/>
+      <c r="SO28" s="35"/>
+      <c r="SP28" s="35"/>
+      <c r="SQ28" s="35"/>
+      <c r="SR28" s="35"/>
+      <c r="SS28" s="35"/>
+      <c r="ST28" s="35"/>
+      <c r="SU28" s="35"/>
+      <c r="SV28" s="35"/>
+      <c r="SW28" s="35"/>
+      <c r="SX28" s="35"/>
+      <c r="SY28" s="35"/>
+      <c r="SZ28" s="35"/>
+      <c r="TA28" s="35"/>
+      <c r="TB28" s="35"/>
+      <c r="TC28" s="35"/>
+      <c r="TD28" s="35"/>
+      <c r="TE28" s="35"/>
+      <c r="TF28" s="35"/>
+      <c r="TG28" s="35"/>
+      <c r="TH28" s="35"/>
+      <c r="TI28" s="35"/>
+      <c r="TJ28" s="35"/>
+      <c r="TK28" s="35"/>
+      <c r="TL28" s="35"/>
+      <c r="TM28" s="35"/>
+      <c r="TN28" s="35"/>
+      <c r="TO28" s="35"/>
+      <c r="TP28" s="35"/>
+      <c r="TQ28" s="35"/>
+      <c r="TR28" s="35"/>
+      <c r="TS28" s="35"/>
+      <c r="TT28" s="35"/>
+      <c r="TU28" s="35"/>
+      <c r="TV28" s="35"/>
+      <c r="TW28" s="35"/>
+      <c r="TX28" s="35"/>
+      <c r="TY28" s="35"/>
+      <c r="TZ28" s="35"/>
+      <c r="UA28" s="35"/>
+      <c r="UB28" s="35"/>
+      <c r="UC28" s="35"/>
+      <c r="UD28" s="35"/>
+      <c r="UE28" s="35"/>
+      <c r="UF28" s="35"/>
+      <c r="UG28" s="35"/>
+      <c r="UH28" s="35"/>
+      <c r="UI28" s="35"/>
+      <c r="UJ28" s="35"/>
+      <c r="UK28" s="35"/>
+      <c r="UL28" s="35"/>
+      <c r="UM28" s="35"/>
+      <c r="UN28" s="35"/>
+      <c r="UO28" s="35"/>
+      <c r="UP28" s="35"/>
+      <c r="UQ28" s="35"/>
+      <c r="UR28" s="35"/>
+      <c r="US28" s="35"/>
+      <c r="UT28" s="35"/>
+      <c r="UU28" s="35"/>
+      <c r="UV28" s="35"/>
+      <c r="UW28" s="35"/>
+      <c r="UX28" s="35"/>
+      <c r="UY28" s="35"/>
+      <c r="UZ28" s="35"/>
+      <c r="VA28" s="35"/>
+      <c r="VB28" s="35"/>
+      <c r="VC28" s="35"/>
+      <c r="VD28" s="35"/>
+      <c r="VE28" s="35"/>
+      <c r="VF28" s="35"/>
+      <c r="VG28" s="35"/>
+      <c r="VH28" s="35"/>
+      <c r="VI28" s="35"/>
+      <c r="VJ28" s="35"/>
+      <c r="VK28" s="35"/>
+      <c r="VL28" s="35"/>
+      <c r="VM28" s="35"/>
+      <c r="VN28" s="35"/>
+      <c r="VO28" s="35"/>
+      <c r="VP28" s="35"/>
+      <c r="VQ28" s="35"/>
+      <c r="VR28" s="35"/>
+      <c r="VS28" s="35"/>
+      <c r="VT28" s="35"/>
+      <c r="VU28" s="35"/>
+      <c r="VV28" s="35"/>
+      <c r="VW28" s="35"/>
+      <c r="VX28" s="35"/>
+      <c r="VY28" s="35"/>
+      <c r="VZ28" s="35"/>
+      <c r="WA28" s="35"/>
+      <c r="WB28" s="35"/>
+      <c r="WC28" s="35"/>
+      <c r="WD28" s="35"/>
+      <c r="WE28" s="35"/>
+      <c r="WF28" s="35"/>
+      <c r="WG28" s="35"/>
+      <c r="WH28" s="35"/>
+      <c r="WI28" s="35"/>
+      <c r="WJ28" s="35"/>
+      <c r="WK28" s="35"/>
+      <c r="WL28" s="35"/>
+      <c r="WM28" s="35"/>
+      <c r="WN28" s="35"/>
+      <c r="WO28" s="35"/>
+      <c r="WP28" s="35"/>
+      <c r="WQ28" s="35"/>
+      <c r="WR28" s="35"/>
+      <c r="WS28" s="35"/>
+      <c r="WT28" s="35"/>
+      <c r="WU28" s="35"/>
+      <c r="WV28" s="35"/>
+      <c r="WW28" s="35"/>
+      <c r="WX28" s="35"/>
+      <c r="WY28" s="35"/>
+      <c r="WZ28" s="35"/>
+      <c r="XA28" s="35"/>
+      <c r="XB28" s="35"/>
+      <c r="XC28" s="35"/>
+      <c r="XD28" s="35"/>
+      <c r="XE28" s="35"/>
+      <c r="XF28" s="35"/>
+      <c r="XG28" s="35"/>
+      <c r="XH28" s="35"/>
+      <c r="XI28" s="35"/>
+      <c r="XJ28" s="35"/>
+      <c r="XK28" s="35"/>
+      <c r="XL28" s="35"/>
+      <c r="XM28" s="35"/>
+      <c r="XN28" s="35"/>
+      <c r="XO28" s="35"/>
+      <c r="XP28" s="35"/>
+      <c r="XQ28" s="35"/>
+      <c r="XR28" s="35"/>
+      <c r="XS28" s="35"/>
+      <c r="XT28" s="35"/>
+      <c r="XU28" s="35"/>
+      <c r="XV28" s="35"/>
+      <c r="XW28" s="35"/>
+      <c r="XX28" s="35"/>
+      <c r="XY28" s="35"/>
+      <c r="XZ28" s="35"/>
+      <c r="YA28" s="35"/>
+      <c r="YB28" s="35"/>
+      <c r="YC28" s="35"/>
+      <c r="YD28" s="35"/>
+      <c r="YE28" s="35"/>
+      <c r="YF28" s="35"/>
+      <c r="YG28" s="35"/>
+      <c r="YH28" s="35"/>
+      <c r="YI28" s="35"/>
+      <c r="YJ28" s="35"/>
+      <c r="YK28" s="35"/>
+      <c r="YL28" s="35"/>
+      <c r="YM28" s="35"/>
+      <c r="YN28" s="35"/>
+      <c r="YO28" s="35"/>
+      <c r="YP28" s="35"/>
+      <c r="YQ28" s="35"/>
+      <c r="YR28" s="35"/>
+      <c r="YS28" s="35"/>
+      <c r="YT28" s="35"/>
+      <c r="YU28" s="35"/>
+      <c r="YV28" s="35"/>
+      <c r="YW28" s="35"/>
+      <c r="YX28" s="35"/>
+      <c r="YY28" s="35"/>
+      <c r="YZ28" s="35"/>
+      <c r="ZA28" s="35"/>
+      <c r="ZB28" s="35"/>
+      <c r="ZC28" s="35"/>
+      <c r="ZD28" s="35"/>
+      <c r="ZE28" s="35"/>
+      <c r="ZF28" s="35"/>
+      <c r="ZG28" s="35"/>
+      <c r="ZH28" s="35"/>
+      <c r="ZI28" s="35"/>
+      <c r="ZJ28" s="35"/>
+      <c r="ZK28" s="35"/>
+      <c r="ZL28" s="35"/>
+      <c r="ZM28" s="35"/>
+      <c r="ZN28" s="35"/>
+      <c r="ZO28" s="35"/>
+      <c r="ZP28" s="35"/>
+      <c r="ZQ28" s="35"/>
+      <c r="ZR28" s="35"/>
+      <c r="ZS28" s="35"/>
+      <c r="ZT28" s="35"/>
+      <c r="ZU28" s="35"/>
+      <c r="ZV28" s="35"/>
+      <c r="ZW28" s="35"/>
+      <c r="ZX28" s="35"/>
+      <c r="ZY28" s="35"/>
+      <c r="ZZ28" s="35"/>
+      <c r="AAA28" s="35"/>
+      <c r="AAB28" s="35"/>
+      <c r="AAC28" s="35"/>
+      <c r="AAD28" s="35"/>
+      <c r="AAE28" s="35"/>
+      <c r="AAF28" s="35"/>
+      <c r="AAG28" s="35"/>
+      <c r="AAH28" s="35"/>
     </row>
-    <row r="29" spans="1:710" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+    <row r="29" spans="1:710" s="36" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="35"/>
+      <c r="AX29" s="35"/>
+      <c r="AY29" s="35"/>
+      <c r="AZ29" s="35"/>
+      <c r="BA29" s="35"/>
+      <c r="BB29" s="35"/>
+      <c r="BC29" s="35"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="35"/>
+      <c r="BF29" s="35"/>
+      <c r="BG29" s="35"/>
+      <c r="BH29" s="35"/>
+      <c r="BI29" s="35"/>
+      <c r="BJ29" s="35"/>
+      <c r="BK29" s="35"/>
+      <c r="BL29" s="35"/>
+      <c r="BM29" s="35"/>
+      <c r="BN29" s="35"/>
+      <c r="BO29" s="35"/>
+      <c r="BP29" s="35"/>
+      <c r="BQ29" s="35"/>
+      <c r="BR29" s="35"/>
+      <c r="BS29" s="35"/>
+      <c r="BT29" s="35"/>
+      <c r="BU29" s="35"/>
+      <c r="BV29" s="35"/>
+      <c r="BW29" s="35"/>
+      <c r="BX29" s="35"/>
+      <c r="BY29" s="35"/>
+      <c r="BZ29" s="35"/>
+      <c r="CA29" s="35"/>
+      <c r="CB29" s="35"/>
+      <c r="CC29" s="35"/>
+      <c r="CD29" s="35"/>
+      <c r="CE29" s="35"/>
+      <c r="CF29" s="35"/>
+      <c r="CG29" s="35"/>
+      <c r="CH29" s="35"/>
+      <c r="CI29" s="35"/>
+      <c r="CJ29" s="35"/>
+      <c r="CK29" s="35"/>
+      <c r="CL29" s="35"/>
+      <c r="CM29" s="35"/>
+      <c r="CN29" s="35"/>
+      <c r="CO29" s="35"/>
+      <c r="CP29" s="35"/>
+      <c r="CQ29" s="35"/>
+      <c r="CR29" s="35"/>
+      <c r="CS29" s="35"/>
+      <c r="CT29" s="35"/>
+      <c r="CU29" s="35"/>
+      <c r="CV29" s="35"/>
+      <c r="CW29" s="35"/>
+      <c r="CX29" s="35"/>
+      <c r="CY29" s="35"/>
+      <c r="CZ29" s="35"/>
+      <c r="DA29" s="35"/>
+      <c r="DB29" s="35"/>
+      <c r="DC29" s="35"/>
+      <c r="DD29" s="35"/>
+      <c r="DE29" s="35"/>
+      <c r="DF29" s="35"/>
+      <c r="DG29" s="35"/>
+      <c r="DH29" s="35"/>
+      <c r="DI29" s="35"/>
+      <c r="DJ29" s="35"/>
+      <c r="DK29" s="35"/>
+      <c r="DL29" s="35"/>
+      <c r="DM29" s="35"/>
+      <c r="DN29" s="35"/>
+      <c r="DO29" s="35"/>
+      <c r="DP29" s="35"/>
+      <c r="DQ29" s="35"/>
+      <c r="DR29" s="35"/>
+      <c r="DS29" s="35"/>
+      <c r="DT29" s="35"/>
+      <c r="DU29" s="35"/>
+      <c r="DV29" s="35"/>
+      <c r="DW29" s="35"/>
+      <c r="DX29" s="35"/>
+      <c r="DY29" s="35"/>
+      <c r="DZ29" s="35"/>
+      <c r="EA29" s="35"/>
+      <c r="EB29" s="35"/>
+      <c r="EC29" s="35"/>
+      <c r="ED29" s="35"/>
+      <c r="EE29" s="35"/>
+      <c r="EF29" s="35"/>
+      <c r="EG29" s="35"/>
+      <c r="EH29" s="35"/>
+      <c r="EI29" s="35"/>
+      <c r="EJ29" s="35"/>
+      <c r="EK29" s="35"/>
+      <c r="EL29" s="35"/>
+      <c r="EM29" s="35"/>
+      <c r="EN29" s="35"/>
+      <c r="EO29" s="35"/>
+      <c r="EP29" s="35"/>
+      <c r="EQ29" s="35"/>
+      <c r="ER29" s="35"/>
+      <c r="ES29" s="35"/>
+      <c r="ET29" s="35"/>
+      <c r="EU29" s="35"/>
+      <c r="EV29" s="35"/>
+      <c r="EW29" s="35"/>
+      <c r="EX29" s="35"/>
+      <c r="EY29" s="35"/>
+      <c r="EZ29" s="35"/>
+      <c r="FA29" s="35"/>
+      <c r="FB29" s="35"/>
+      <c r="FC29" s="35"/>
+      <c r="FD29" s="35"/>
+      <c r="FE29" s="35"/>
+      <c r="FF29" s="35"/>
+      <c r="FG29" s="35"/>
+      <c r="FH29" s="35"/>
+      <c r="FI29" s="35"/>
+      <c r="FJ29" s="35"/>
+      <c r="FK29" s="35"/>
+      <c r="FL29" s="35"/>
+      <c r="FM29" s="35"/>
+      <c r="FN29" s="35"/>
+      <c r="FO29" s="35"/>
+      <c r="FP29" s="35"/>
+      <c r="FQ29" s="35"/>
+      <c r="FR29" s="35"/>
+      <c r="FS29" s="35"/>
+      <c r="FT29" s="35"/>
+      <c r="FU29" s="35"/>
+      <c r="FV29" s="35"/>
+      <c r="FW29" s="35"/>
+      <c r="FX29" s="35"/>
+      <c r="FY29" s="35"/>
+      <c r="FZ29" s="35"/>
+      <c r="GA29" s="35"/>
+      <c r="GB29" s="35"/>
+      <c r="GC29" s="35"/>
+      <c r="GD29" s="35"/>
+      <c r="GE29" s="35"/>
+      <c r="GF29" s="35"/>
+      <c r="GG29" s="35"/>
+      <c r="GH29" s="35"/>
+      <c r="GI29" s="35"/>
+      <c r="GJ29" s="35"/>
+      <c r="GK29" s="35"/>
+      <c r="GL29" s="35"/>
+      <c r="GM29" s="35"/>
+      <c r="GN29" s="35"/>
+      <c r="GO29" s="35"/>
+      <c r="GP29" s="35"/>
+      <c r="GQ29" s="35"/>
+      <c r="GR29" s="35"/>
+      <c r="GS29" s="35"/>
+      <c r="GT29" s="35"/>
+      <c r="GU29" s="35"/>
+      <c r="GV29" s="35"/>
+      <c r="GW29" s="35"/>
+      <c r="GX29" s="35"/>
+      <c r="GY29" s="35"/>
+      <c r="GZ29" s="35"/>
+      <c r="HA29" s="35"/>
+      <c r="HB29" s="35"/>
+      <c r="HC29" s="35"/>
+      <c r="HD29" s="35"/>
+      <c r="HE29" s="35"/>
+      <c r="HF29" s="35"/>
+      <c r="HG29" s="35"/>
+      <c r="HH29" s="35"/>
+      <c r="HI29" s="35"/>
+      <c r="HJ29" s="35"/>
+      <c r="HK29" s="35"/>
+      <c r="HL29" s="35"/>
+      <c r="HM29" s="35"/>
+      <c r="HN29" s="35"/>
+      <c r="HO29" s="35"/>
+      <c r="HP29" s="35"/>
+      <c r="HQ29" s="35"/>
+      <c r="HR29" s="35"/>
+      <c r="HS29" s="35"/>
+      <c r="HT29" s="35"/>
+      <c r="HU29" s="35"/>
+      <c r="HV29" s="35"/>
+      <c r="HW29" s="35"/>
+      <c r="HX29" s="35"/>
+      <c r="HY29" s="35"/>
+      <c r="HZ29" s="35"/>
+      <c r="IA29" s="35"/>
+      <c r="IB29" s="35"/>
+      <c r="IC29" s="35"/>
+      <c r="ID29" s="35"/>
+      <c r="IE29" s="35"/>
+      <c r="IF29" s="35"/>
+      <c r="IG29" s="35"/>
+      <c r="IH29" s="35"/>
+      <c r="II29" s="35"/>
+      <c r="IJ29" s="35"/>
+      <c r="IK29" s="35"/>
+      <c r="IL29" s="35"/>
+      <c r="IM29" s="35"/>
+      <c r="IN29" s="35"/>
+      <c r="IO29" s="35"/>
+      <c r="IP29" s="35"/>
+      <c r="IQ29" s="35"/>
+      <c r="IR29" s="35"/>
+      <c r="IS29" s="35"/>
+      <c r="IT29" s="35"/>
+      <c r="IU29" s="35"/>
+      <c r="IV29" s="35"/>
+      <c r="IW29" s="35"/>
+      <c r="IX29" s="35"/>
+      <c r="IY29" s="35"/>
+      <c r="IZ29" s="35"/>
+      <c r="JA29" s="35"/>
+      <c r="JB29" s="35"/>
+      <c r="JC29" s="35"/>
+      <c r="JD29" s="35"/>
+      <c r="JE29" s="35"/>
+      <c r="JF29" s="35"/>
+      <c r="JG29" s="35"/>
+      <c r="JH29" s="35"/>
+      <c r="JI29" s="35"/>
+      <c r="JJ29" s="35"/>
+      <c r="JK29" s="35"/>
+      <c r="JL29" s="35"/>
+      <c r="JM29" s="35"/>
+      <c r="JN29" s="35"/>
+      <c r="JO29" s="35"/>
+      <c r="JP29" s="35"/>
+      <c r="JQ29" s="35"/>
+      <c r="JR29" s="35"/>
+      <c r="JS29" s="35"/>
+      <c r="JT29" s="35"/>
+      <c r="JU29" s="35"/>
+      <c r="JV29" s="35"/>
+      <c r="JW29" s="35"/>
+      <c r="JX29" s="35"/>
+      <c r="JY29" s="35"/>
+      <c r="JZ29" s="35"/>
+      <c r="KA29" s="35"/>
+      <c r="KB29" s="35"/>
+      <c r="KC29" s="35"/>
+      <c r="KD29" s="35"/>
+      <c r="KE29" s="35"/>
+      <c r="KF29" s="35"/>
+      <c r="KG29" s="35"/>
+      <c r="KH29" s="35"/>
+      <c r="KI29" s="35"/>
+      <c r="KJ29" s="35"/>
+      <c r="KK29" s="35"/>
+      <c r="KL29" s="35"/>
+      <c r="KM29" s="35"/>
+      <c r="KN29" s="35"/>
+      <c r="KO29" s="35"/>
+      <c r="KP29" s="35"/>
+      <c r="KQ29" s="35"/>
+      <c r="KR29" s="35"/>
+      <c r="KS29" s="35"/>
+      <c r="KT29" s="35"/>
+      <c r="KU29" s="35"/>
+      <c r="KV29" s="35"/>
+      <c r="KW29" s="35"/>
+      <c r="KX29" s="35"/>
+      <c r="KY29" s="35"/>
+      <c r="KZ29" s="35"/>
+      <c r="LA29" s="35"/>
+      <c r="LB29" s="35"/>
+      <c r="LC29" s="35"/>
+      <c r="LD29" s="35"/>
+      <c r="LE29" s="35"/>
+      <c r="LF29" s="35"/>
+      <c r="LG29" s="35"/>
+      <c r="LH29" s="35"/>
+      <c r="LI29" s="35"/>
+      <c r="LJ29" s="35"/>
+      <c r="LK29" s="35"/>
+      <c r="LL29" s="35"/>
+      <c r="LM29" s="35"/>
+      <c r="LN29" s="35"/>
+      <c r="LO29" s="35"/>
+      <c r="LP29" s="35"/>
+      <c r="LQ29" s="35"/>
+      <c r="LR29" s="35"/>
+      <c r="LS29" s="35"/>
+      <c r="LT29" s="35"/>
+      <c r="LU29" s="35"/>
+      <c r="LV29" s="35"/>
+      <c r="LW29" s="35"/>
+      <c r="LX29" s="35"/>
+      <c r="LY29" s="35"/>
+      <c r="LZ29" s="35"/>
+      <c r="MA29" s="35"/>
+      <c r="MB29" s="35"/>
+      <c r="MC29" s="35"/>
+      <c r="MD29" s="35"/>
+      <c r="ME29" s="35"/>
+      <c r="MF29" s="35"/>
+      <c r="MG29" s="35"/>
+      <c r="MH29" s="35"/>
+      <c r="MI29" s="35"/>
+      <c r="MJ29" s="35"/>
+      <c r="MK29" s="35"/>
+      <c r="ML29" s="35"/>
+      <c r="MM29" s="35"/>
+      <c r="MN29" s="35"/>
+      <c r="MO29" s="35"/>
+      <c r="MP29" s="35"/>
+      <c r="MQ29" s="35"/>
+      <c r="MR29" s="35"/>
+      <c r="MS29" s="35"/>
+      <c r="MT29" s="35"/>
+      <c r="MU29" s="35"/>
+      <c r="MV29" s="35"/>
+      <c r="MW29" s="35"/>
+      <c r="MX29" s="35"/>
+      <c r="MY29" s="35"/>
+      <c r="MZ29" s="35"/>
+      <c r="NA29" s="35"/>
+      <c r="NB29" s="35"/>
+      <c r="NC29" s="35"/>
+      <c r="ND29" s="35"/>
+      <c r="NE29" s="35"/>
+      <c r="NF29" s="35"/>
+      <c r="NG29" s="35"/>
+      <c r="NH29" s="35"/>
+      <c r="NI29" s="35"/>
+      <c r="NJ29" s="35"/>
+      <c r="NK29" s="35"/>
+      <c r="NL29" s="35"/>
+      <c r="NM29" s="35"/>
+      <c r="NN29" s="35"/>
+      <c r="NO29" s="35"/>
+      <c r="NP29" s="35"/>
+      <c r="NQ29" s="35"/>
+      <c r="NR29" s="35"/>
+      <c r="NS29" s="35"/>
+      <c r="NT29" s="35"/>
+      <c r="NU29" s="35"/>
+      <c r="NV29" s="35"/>
+      <c r="NW29" s="35"/>
+      <c r="NX29" s="35"/>
+      <c r="NY29" s="35"/>
+      <c r="NZ29" s="35"/>
+      <c r="OA29" s="35"/>
+      <c r="OB29" s="35"/>
+      <c r="OC29" s="35"/>
+      <c r="OD29" s="35"/>
+      <c r="OE29" s="35"/>
+      <c r="OF29" s="35"/>
+      <c r="OG29" s="35"/>
+      <c r="OH29" s="35"/>
+      <c r="OI29" s="35"/>
+      <c r="OJ29" s="35"/>
+      <c r="OK29" s="35"/>
+      <c r="OL29" s="35"/>
+      <c r="OM29" s="35"/>
+      <c r="ON29" s="35"/>
+      <c r="OO29" s="35"/>
+      <c r="OP29" s="35"/>
+      <c r="OQ29" s="35"/>
+      <c r="OR29" s="35"/>
+      <c r="OS29" s="35"/>
+      <c r="OT29" s="35"/>
+      <c r="OU29" s="35"/>
+      <c r="OV29" s="35"/>
+      <c r="OW29" s="35"/>
+      <c r="OX29" s="35"/>
+      <c r="OY29" s="35"/>
+      <c r="OZ29" s="35"/>
+      <c r="PA29" s="35"/>
+      <c r="PB29" s="35"/>
+      <c r="PC29" s="35"/>
+      <c r="PD29" s="35"/>
+      <c r="PE29" s="35"/>
+      <c r="PF29" s="35"/>
+      <c r="PG29" s="35"/>
+      <c r="PH29" s="35"/>
+      <c r="PI29" s="35"/>
+      <c r="PJ29" s="35"/>
+      <c r="PK29" s="35"/>
+      <c r="PL29" s="35"/>
+      <c r="PM29" s="35"/>
+      <c r="PN29" s="35"/>
+      <c r="PO29" s="35"/>
+      <c r="PP29" s="35"/>
+      <c r="PQ29" s="35"/>
+      <c r="PR29" s="35"/>
+      <c r="PS29" s="35"/>
+      <c r="PT29" s="35"/>
+      <c r="PU29" s="35"/>
+      <c r="PV29" s="35"/>
+      <c r="PW29" s="35"/>
+      <c r="PX29" s="35"/>
+      <c r="PY29" s="35"/>
+      <c r="PZ29" s="35"/>
+      <c r="QA29" s="35"/>
+      <c r="QB29" s="35"/>
+      <c r="QC29" s="35"/>
+      <c r="QD29" s="35"/>
+      <c r="QE29" s="35"/>
+      <c r="QF29" s="35"/>
+      <c r="QG29" s="35"/>
+      <c r="QH29" s="35"/>
+      <c r="QI29" s="35"/>
+      <c r="QJ29" s="35"/>
+      <c r="QK29" s="35"/>
+      <c r="QL29" s="35"/>
+      <c r="QM29" s="35"/>
+      <c r="QN29" s="35"/>
+      <c r="QO29" s="35"/>
+      <c r="QP29" s="35"/>
+      <c r="QQ29" s="35"/>
+      <c r="QR29" s="35"/>
+      <c r="QS29" s="35"/>
+      <c r="QT29" s="35"/>
+      <c r="QU29" s="35"/>
+      <c r="QV29" s="35"/>
+      <c r="QW29" s="35"/>
+      <c r="QX29" s="35"/>
+      <c r="QY29" s="35"/>
+      <c r="QZ29" s="35"/>
+      <c r="RA29" s="35"/>
+      <c r="RB29" s="35"/>
+      <c r="RC29" s="35"/>
+      <c r="RD29" s="35"/>
+      <c r="RE29" s="35"/>
+      <c r="RF29" s="35"/>
+      <c r="RG29" s="35"/>
+      <c r="RH29" s="35"/>
+      <c r="RI29" s="35"/>
+      <c r="RJ29" s="35"/>
+      <c r="RK29" s="35"/>
+      <c r="RL29" s="35"/>
+      <c r="RM29" s="35"/>
+      <c r="RN29" s="35"/>
+      <c r="RO29" s="35"/>
+      <c r="RP29" s="35"/>
+      <c r="RQ29" s="35"/>
+      <c r="RR29" s="35"/>
+      <c r="RS29" s="35"/>
+      <c r="RT29" s="35"/>
+      <c r="RU29" s="35"/>
+      <c r="RV29" s="35"/>
+      <c r="RW29" s="35"/>
+      <c r="RX29" s="35"/>
+      <c r="RY29" s="35"/>
+      <c r="RZ29" s="35"/>
+      <c r="SA29" s="35"/>
+      <c r="SB29" s="35"/>
+      <c r="SC29" s="35"/>
+      <c r="SD29" s="35"/>
+      <c r="SE29" s="35"/>
+      <c r="SF29" s="35"/>
+      <c r="SG29" s="35"/>
+      <c r="SH29" s="35"/>
+      <c r="SI29" s="35"/>
+      <c r="SJ29" s="35"/>
+      <c r="SK29" s="35"/>
+      <c r="SL29" s="35"/>
+      <c r="SM29" s="35"/>
+      <c r="SN29" s="35"/>
+      <c r="SO29" s="35"/>
+      <c r="SP29" s="35"/>
+      <c r="SQ29" s="35"/>
+      <c r="SR29" s="35"/>
+      <c r="SS29" s="35"/>
+      <c r="ST29" s="35"/>
+      <c r="SU29" s="35"/>
+      <c r="SV29" s="35"/>
+      <c r="SW29" s="35"/>
+      <c r="SX29" s="35"/>
+      <c r="SY29" s="35"/>
+      <c r="SZ29" s="35"/>
+      <c r="TA29" s="35"/>
+      <c r="TB29" s="35"/>
+      <c r="TC29" s="35"/>
+      <c r="TD29" s="35"/>
+      <c r="TE29" s="35"/>
+      <c r="TF29" s="35"/>
+      <c r="TG29" s="35"/>
+      <c r="TH29" s="35"/>
+      <c r="TI29" s="35"/>
+      <c r="TJ29" s="35"/>
+      <c r="TK29" s="35"/>
+      <c r="TL29" s="35"/>
+      <c r="TM29" s="35"/>
+      <c r="TN29" s="35"/>
+      <c r="TO29" s="35"/>
+      <c r="TP29" s="35"/>
+      <c r="TQ29" s="35"/>
+      <c r="TR29" s="35"/>
+      <c r="TS29" s="35"/>
+      <c r="TT29" s="35"/>
+      <c r="TU29" s="35"/>
+      <c r="TV29" s="35"/>
+      <c r="TW29" s="35"/>
+      <c r="TX29" s="35"/>
+      <c r="TY29" s="35"/>
+      <c r="TZ29" s="35"/>
+      <c r="UA29" s="35"/>
+      <c r="UB29" s="35"/>
+      <c r="UC29" s="35"/>
+      <c r="UD29" s="35"/>
+      <c r="UE29" s="35"/>
+      <c r="UF29" s="35"/>
+      <c r="UG29" s="35"/>
+      <c r="UH29" s="35"/>
+      <c r="UI29" s="35"/>
+      <c r="UJ29" s="35"/>
+      <c r="UK29" s="35"/>
+      <c r="UL29" s="35"/>
+      <c r="UM29" s="35"/>
+      <c r="UN29" s="35"/>
+      <c r="UO29" s="35"/>
+      <c r="UP29" s="35"/>
+      <c r="UQ29" s="35"/>
+      <c r="UR29" s="35"/>
+      <c r="US29" s="35"/>
+      <c r="UT29" s="35"/>
+      <c r="UU29" s="35"/>
+      <c r="UV29" s="35"/>
+      <c r="UW29" s="35"/>
+      <c r="UX29" s="35"/>
+      <c r="UY29" s="35"/>
+      <c r="UZ29" s="35"/>
+      <c r="VA29" s="35"/>
+      <c r="VB29" s="35"/>
+      <c r="VC29" s="35"/>
+      <c r="VD29" s="35"/>
+      <c r="VE29" s="35"/>
+      <c r="VF29" s="35"/>
+      <c r="VG29" s="35"/>
+      <c r="VH29" s="35"/>
+      <c r="VI29" s="35"/>
+      <c r="VJ29" s="35"/>
+      <c r="VK29" s="35"/>
+      <c r="VL29" s="35"/>
+      <c r="VM29" s="35"/>
+      <c r="VN29" s="35"/>
+      <c r="VO29" s="35"/>
+      <c r="VP29" s="35"/>
+      <c r="VQ29" s="35"/>
+      <c r="VR29" s="35"/>
+      <c r="VS29" s="35"/>
+      <c r="VT29" s="35"/>
+      <c r="VU29" s="35"/>
+      <c r="VV29" s="35"/>
+      <c r="VW29" s="35"/>
+      <c r="VX29" s="35"/>
+      <c r="VY29" s="35"/>
+      <c r="VZ29" s="35"/>
+      <c r="WA29" s="35"/>
+      <c r="WB29" s="35"/>
+      <c r="WC29" s="35"/>
+      <c r="WD29" s="35"/>
+      <c r="WE29" s="35"/>
+      <c r="WF29" s="35"/>
+      <c r="WG29" s="35"/>
+      <c r="WH29" s="35"/>
+      <c r="WI29" s="35"/>
+      <c r="WJ29" s="35"/>
+      <c r="WK29" s="35"/>
+      <c r="WL29" s="35"/>
+      <c r="WM29" s="35"/>
+      <c r="WN29" s="35"/>
+      <c r="WO29" s="35"/>
+      <c r="WP29" s="35"/>
+      <c r="WQ29" s="35"/>
+      <c r="WR29" s="35"/>
+      <c r="WS29" s="35"/>
+      <c r="WT29" s="35"/>
+      <c r="WU29" s="35"/>
+      <c r="WV29" s="35"/>
+      <c r="WW29" s="35"/>
+      <c r="WX29" s="35"/>
+      <c r="WY29" s="35"/>
+      <c r="WZ29" s="35"/>
+      <c r="XA29" s="35"/>
+      <c r="XB29" s="35"/>
+      <c r="XC29" s="35"/>
+      <c r="XD29" s="35"/>
+      <c r="XE29" s="35"/>
+      <c r="XF29" s="35"/>
+      <c r="XG29" s="35"/>
+      <c r="XH29" s="35"/>
+      <c r="XI29" s="35"/>
+      <c r="XJ29" s="35"/>
+      <c r="XK29" s="35"/>
+      <c r="XL29" s="35"/>
+      <c r="XM29" s="35"/>
+      <c r="XN29" s="35"/>
+      <c r="XO29" s="35"/>
+      <c r="XP29" s="35"/>
+      <c r="XQ29" s="35"/>
+      <c r="XR29" s="35"/>
+      <c r="XS29" s="35"/>
+      <c r="XT29" s="35"/>
+      <c r="XU29" s="35"/>
+      <c r="XV29" s="35"/>
+      <c r="XW29" s="35"/>
+      <c r="XX29" s="35"/>
+      <c r="XY29" s="35"/>
+      <c r="XZ29" s="35"/>
+      <c r="YA29" s="35"/>
+      <c r="YB29" s="35"/>
+      <c r="YC29" s="35"/>
+      <c r="YD29" s="35"/>
+      <c r="YE29" s="35"/>
+      <c r="YF29" s="35"/>
+      <c r="YG29" s="35"/>
+      <c r="YH29" s="35"/>
+      <c r="YI29" s="35"/>
+      <c r="YJ29" s="35"/>
+      <c r="YK29" s="35"/>
+      <c r="YL29" s="35"/>
+      <c r="YM29" s="35"/>
+      <c r="YN29" s="35"/>
+      <c r="YO29" s="35"/>
+      <c r="YP29" s="35"/>
+      <c r="YQ29" s="35"/>
+      <c r="YR29" s="35"/>
+      <c r="YS29" s="35"/>
+      <c r="YT29" s="35"/>
+      <c r="YU29" s="35"/>
+      <c r="YV29" s="35"/>
+      <c r="YW29" s="35"/>
+      <c r="YX29" s="35"/>
+      <c r="YY29" s="35"/>
+      <c r="YZ29" s="35"/>
+      <c r="ZA29" s="35"/>
+      <c r="ZB29" s="35"/>
+      <c r="ZC29" s="35"/>
+      <c r="ZD29" s="35"/>
+      <c r="ZE29" s="35"/>
+      <c r="ZF29" s="35"/>
+      <c r="ZG29" s="35"/>
+      <c r="ZH29" s="35"/>
+      <c r="ZI29" s="35"/>
+      <c r="ZJ29" s="35"/>
+      <c r="ZK29" s="35"/>
+      <c r="ZL29" s="35"/>
+      <c r="ZM29" s="35"/>
+      <c r="ZN29" s="35"/>
+      <c r="ZO29" s="35"/>
+      <c r="ZP29" s="35"/>
+      <c r="ZQ29" s="35"/>
+      <c r="ZR29" s="35"/>
+      <c r="ZS29" s="35"/>
+      <c r="ZT29" s="35"/>
+      <c r="ZU29" s="35"/>
+      <c r="ZV29" s="35"/>
+      <c r="ZW29" s="35"/>
+      <c r="ZX29" s="35"/>
+      <c r="ZY29" s="35"/>
+      <c r="ZZ29" s="35"/>
+      <c r="AAA29" s="35"/>
+      <c r="AAB29" s="35"/>
+      <c r="AAC29" s="35"/>
+      <c r="AAD29" s="35"/>
+      <c r="AAE29" s="35"/>
+      <c r="AAF29" s="35"/>
+      <c r="AAG29" s="35"/>
+      <c r="AAH29" s="35"/>
     </row>
-    <row r="30" spans="1:710" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
     </row>
-    <row r="31" spans="1:710" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
     </row>
-    <row r="32" spans="1:710" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
     </row>
@@ -19856,71 +22828,87 @@
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="E34" s="56"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="53"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
-      <c r="E36" s="50"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
-      <c r="E37" s="50"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
-      <c r="E38" s="50"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
-      <c r="E39" s="50"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="E40" s="50"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
-      <c r="E41" s="50"/>
+      <c r="E41" s="55"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="E42" s="50"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="E43" s="50"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
@@ -20252,14 +23240,72 @@
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
     </row>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="49"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="49"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="49"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M21:M22"/>
+  <mergeCells count="73">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="C11:C13"/>
@@ -20274,44 +23320,13 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20321,16 +23336,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAH29"/>
+  <dimension ref="A1:AAH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="47.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -20344,21 +23361,21 @@
   <sheetData>
     <row r="1" spans="1:710" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="21"/>
       <c r="E1" s="2"/>
       <c r="F1" s="21"/>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="97" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="4">
-        <f>COUNTIF($J15:$J390,"High")</f>
+        <f>COUNTIF($J15:$J389,"High")</f>
         <v>0</v>
       </c>
       <c r="N1" s="6"/>
@@ -21065,16 +24082,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="I2" s="99"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="11">
-        <f>COUNTIF($J15:$J390,"Medium")</f>
+        <f>COUNTIF($J15:$J389,"Medium")</f>
         <v>0</v>
       </c>
       <c r="N2" s="12"/>
@@ -21783,12 +24800,12 @@
       <c r="C3" s="13"/>
       <c r="D3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="I3" s="100"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="15">
-        <f>COUNTIF($J15:$J390,"Low")</f>
+        <f>COUNTIF($J15:$J389,"Low")</f>
         <v>0</v>
       </c>
       <c r="N3" s="12"/>
@@ -22491,7 +25508,7 @@
     </row>
     <row r="4" spans="1:710" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="16"/>
@@ -22500,7 +25517,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="97" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -23211,7 +26228,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="I5" s="101"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
@@ -23921,7 +26938,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
-      <c r="I6" s="101"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
@@ -24631,7 +27648,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="I7" s="101"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
@@ -25337,7 +28354,7 @@
     <row r="8" spans="1:710" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="E8" s="22"/>
-      <c r="I8" s="102"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="14" t="s">
         <v>14</v>
       </c>
@@ -26754,164 +29771,164 @@
     </row>
     <row r="11" spans="1:710" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:710" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>83</v>
+      <c r="C12" s="102" t="s">
+        <v>81</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>84</v>
+      <c r="D12" s="102" t="s">
+        <v>82</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="102" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:710" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:710" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:710" s="59" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="122" t="str">
+      <c r="B15" s="141" t="str">
         <f>"API_"&amp;A15</f>
         <v>API_01</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>79</v>
+      <c r="C15" s="141" t="s">
+        <v>77</v>
       </c>
-      <c r="D15" s="122" t="s">
-        <v>85</v>
+      <c r="D15" s="141" t="s">
+        <v>83</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="E15" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="144" t="s">
+      <c r="G15" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="138" t="s">
-        <v>71</v>
+      <c r="H15" s="126" t="s">
+        <v>69</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="144">
+      <c r="I15" s="135"/>
+      <c r="J15" s="123">
         <v>200</v>
       </c>
-      <c r="K15" s="109" t="s">
-        <v>59</v>
+      <c r="K15" s="129" t="s">
+        <v>58</v>
       </c>
-      <c r="L15" s="106" t="s">
-        <v>58</v>
+      <c r="L15" s="120" t="s">
+        <v>57</v>
       </c>
       <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:710" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="107"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="107"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="108"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="127" t="str">
+      <c r="B19" s="75" t="str">
         <f>"API_"&amp;A19</f>
         <v>API_02</v>
       </c>
-      <c r="C19" s="126" t="s">
-        <v>79</v>
+      <c r="C19" s="74" t="s">
+        <v>77</v>
       </c>
-      <c r="D19" s="128" t="s">
-        <v>86</v>
+      <c r="D19" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>52</v>
@@ -26923,7 +29940,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="65"/>
       <c r="J19" s="65">
@@ -26932,21 +29949,21 @@
       <c r="K19" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="127" t="str">
-        <f t="shared" ref="B20:B26" si="0">"API_"&amp;A20</f>
+      <c r="B20" s="75" t="str">
+        <f t="shared" ref="B20:B22" si="0">"API_"&amp;A20</f>
         <v>API_03</v>
       </c>
-      <c r="C20" s="126" t="s">
-        <v>79</v>
+      <c r="C20" s="74" t="s">
+        <v>77</v>
       </c>
-      <c r="D20" s="128" t="s">
-        <v>86</v>
+      <c r="D20" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>53</v>
@@ -26958,7 +29975,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="65"/>
       <c r="J20" s="65">
@@ -26967,21 +29984,21 @@
       <c r="K20" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="125"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="127" t="str">
+      <c r="B21" s="75" t="str">
         <f t="shared" si="0"/>
         <v>API_04</v>
       </c>
-      <c r="C21" s="126" t="s">
-        <v>79</v>
+      <c r="C21" s="74" t="s">
+        <v>77</v>
       </c>
-      <c r="D21" s="128" t="s">
-        <v>86</v>
+      <c r="D21" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>54</v>
@@ -26993,112 +30010,112 @@
         <v>47</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21" s="65"/>
       <c r="J21" s="65">
         <v>400</v>
       </c>
       <c r="K21" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="122" t="str">
+      <c r="B22" s="141" t="str">
         <f t="shared" si="0"/>
         <v>API_05</v>
       </c>
-      <c r="C22" s="132" t="s">
-        <v>79</v>
+      <c r="C22" s="144" t="s">
+        <v>77</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>88</v>
+      <c r="D22" s="147" t="s">
+        <v>86</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="E22" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="144" t="s">
+      <c r="G22" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="138" t="s">
-        <v>75</v>
+      <c r="H22" s="126" t="s">
+        <v>73</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="147">
+      <c r="I22" s="123"/>
+      <c r="J22" s="132">
         <v>200</v>
       </c>
-      <c r="K22" s="129" t="s">
-        <v>87</v>
+      <c r="K22" s="138" t="s">
+        <v>85</v>
       </c>
-      <c r="L22" s="106" t="s">
-        <v>58</v>
+      <c r="L22" s="120" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="107"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="121"/>
     </row>
     <row r="24" spans="1:12" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="107"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="121"/>
     </row>
     <row r="25" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="108"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="122"/>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="127" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="75" t="str">
+        <f>"API_"&amp;A26</f>
         <v>API_06</v>
       </c>
-      <c r="C26" s="126" t="s">
-        <v>79</v>
+      <c r="C26" s="74" t="s">
+        <v>92</v>
       </c>
-      <c r="D26" s="128" t="s">
-        <v>80</v>
+      <c r="D26" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F26" s="63" t="s">
         <v>42</v>
@@ -27106,25 +30123,56 @@
       <c r="G26" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="125"/>
+      <c r="J26" s="65">
+        <v>200</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="63"/>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="75" t="str">
+        <f>"API_"&amp;A27</f>
+        <v>API_07</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="125"/>
+      <c r="J27" s="65">
+        <v>200</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="76" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
@@ -27138,46 +30186,11 @@
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="66"/>
-      <c r="L28" s="125"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="125"/>
+      <c r="L28" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
+  <mergeCells count="39">
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="E12:E14"/>
@@ -27194,6 +30207,28 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="K22:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
